--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6A91D-1C53-4282-A9FE-CCCFD0D19FFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="735" windowWidth="22080" windowHeight="11820"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>
     <sheet name="PulpCalculations" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
   <si>
     <t>Paper</t>
   </si>
@@ -50,12 +62,6 @@
   </si>
   <si>
     <t>RemovedNonMerchToRawLogExports</t>
-  </si>
-  <si>
-    <t>ChipsToPulp</t>
-  </si>
-  <si>
-    <t>ChipsToFuel</t>
   </si>
   <si>
     <t>LumberToPulp</t>
@@ -348,9 +354,6 @@
     <t>LandfillMethaneOxidizedToCO2</t>
   </si>
   <si>
-    <t>RemovedMerchToChipping</t>
-  </si>
-  <si>
     <t>RemovedMerchToLumber</t>
   </si>
   <si>
@@ -363,9 +366,6 @@
     <t>RemovedMerchToMDF</t>
   </si>
   <si>
-    <t>RemovedNonMerchToChipping</t>
-  </si>
-  <si>
     <t>RemovedNonMerchToLumber</t>
   </si>
   <si>
@@ -378,9 +378,6 @@
     <t>RemovedNonMerchToMDF</t>
   </si>
   <si>
-    <t>RemovedSnagStemToChipping</t>
-  </si>
-  <si>
     <t>RemovedSnagStemToLumber</t>
   </si>
   <si>
@@ -421,12 +418,57 @@
   </si>
   <si>
     <t>Assumed equal to shipping</t>
+  </si>
+  <si>
+    <t>RemovedMerchToCants</t>
+  </si>
+  <si>
+    <t>RemovedNonMerchToCants</t>
+  </si>
+  <si>
+    <t>RemovedSnagStemToCants</t>
+  </si>
+  <si>
+    <t>RemovedMerchToPulp</t>
+  </si>
+  <si>
+    <t>RemovedMerchToFuel</t>
+  </si>
+  <si>
+    <t>5% of merch goes to chips, 20% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>5% of merch goes to chips, 80% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>RemovedNonMerchToFuel</t>
+  </si>
+  <si>
+    <t>RemovedNonMerchToPulp</t>
+  </si>
+  <si>
+    <t>50% of nonmerch goes to chips, 20% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>50% of nonmerch goes to chips, 80% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>30% of nonmerch goes to chips, 20% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>30% of nonmerch goes to chips, 80% of that is used as fuel</t>
+  </si>
+  <si>
+    <t>RemovedSnagStemToFuel</t>
+  </si>
+  <si>
+    <t>RemovedSnagStemToPulp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -826,30 +868,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -863,42 +905,49 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3">
-        <v>0.05</v>
+        <f>0.05*0.2</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
       </c>
       <c r="D2" s="10">
-        <f>SUM(B2:B8)</f>
+        <f>SUM(B2:B10)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3">
+        <f>0.05*0.8</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3">
         <v>0.05</v>
@@ -906,9 +955,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3">
         <v>0.05</v>
@@ -916,1028 +965,1080 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="10">
-        <f>SUM(B9:B15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="3">
+        <f>0.5*0.2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(B11:B19)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3">
+        <f>0.5*0.8</f>
+        <v>0.4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3">
+        <f>0.3*0.2</f>
+        <v>0.06</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="10">
+        <f>SUM(B20:B28)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="3">
+        <f>0.3*0.8</f>
+        <v>0.24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <f>0.5*B4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B24" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E24" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B25" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="10">
-        <f>SUM(B16:B22)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="3">
-        <f>0.5*B3</f>
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.50759999999999994</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="10">
-        <f>SUM(B26:B28)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9.8000000000000014E-3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="D29" s="10">
-        <f>SUM(B29:B37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="3">
+        <v>0.50759999999999994</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(B30:B32)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <f>SUM(B33:B41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
         <v>7.5000000000000178E-2</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.24999999999999972</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.5000000000000022E-2</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B37" s="3">
+        <v>7.0000000000000076E-2</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3">
         <v>0.24999999999999972</v>
       </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.5000000000000022E-2</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="3">
-        <v>7.0000000000000076E-2</v>
-      </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3">
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" s="3">
+        <v>0.14000000000000015</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <f>SUM(B42:B50)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4.0000000000000147E-2</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3">
-        <v>0.24999999999999972</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.14000000000000015</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B44" s="3">
+        <v>0.40999999999999981</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2.9999999999999909E-2</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8.9999999999999913E-2</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.0000000000000034E-2</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.0000000000000066E-2</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.25500000000000012</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>8.5000000000000089E-2</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D51" s="10">
+        <f>SUM(B51:B58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.15000000000000016</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.0000000000000032E-2</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.000000000000006E-2</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.35999999999999954</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.0000000000000016E-2</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D59" s="10">
+        <f>SUM(B59:B66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.15000000000000016</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2.0000000000000032E-2</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6.000000000000006E-2</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.35999999999999954</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.0000000000000016E-2</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
-        <f>SUM(B38:B46)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4.0000000000000147E-2</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.40999999999999981</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2.9999999999999909E-2</v>
-      </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3">
-        <v>8.9999999999999913E-2</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3">
-        <v>7.0000000000000034E-2</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2.0000000000000066E-2</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B67" s="3">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="3">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="3">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="3">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="3">
         <v>30</v>
       </c>
-      <c r="B45" s="3">
-        <v>0.25500000000000012</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="3">
-        <v>8.5000000000000089E-2</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="3">
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="D47" s="10">
-        <f>SUM(B47:B54)</f>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="3">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.15000000000000016</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="3">
-        <v>2.0000000000000032E-2</v>
-      </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="3">
-        <v>6.000000000000006E-2</v>
-      </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.35999999999999954</v>
-      </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1.0000000000000016E-2</v>
-      </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.20000000000000012</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="3">
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="D55" s="10">
-        <f>SUM(B55:B62)</f>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="10">
+        <f>SUM(B79:B80)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.15000000000000016</v>
-      </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="3">
-        <v>2.0000000000000032E-2</v>
-      </c>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="3">
-        <v>6.000000000000006E-2</v>
-      </c>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.35999999999999954</v>
-      </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1.0000000000000016E-2</v>
-      </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.20000000000000012</v>
-      </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="3">
-        <v>90</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="3">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="3">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="3">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="3">
-        <v>30</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="3">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="3">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3">
+      <c r="E79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="3">
         <v>0.5</v>
       </c>
-      <c r="D75" s="10">
-        <f>SUM(B75:B76)</f>
-        <v>1</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B81" s="3">
         <v>0.03</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B82" s="3">
         <v>0.97</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3">
         <v>0.03</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B84" s="3">
         <v>0.97</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B85" s="3">
         <v>0.03</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B86" s="3">
         <v>0.97</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3">
         <v>0.03</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
         <v>0.97</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B89" s="3">
         <v>0.03</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B90" s="3">
         <v>0.97</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B91" s="3">
         <v>0.03</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3">
         <v>0.97</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="C93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B99" s="3">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B100" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="3">
-        <v>29</v>
-      </c>
-      <c r="C95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B104" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="C97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="C98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B99" s="3">
-        <v>5</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="B105" s="1">
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0.99999850000000001</v>
-      </c>
-      <c r="C101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="C102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B107" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="3">
+      <c r="B108" s="3">
         <v>0.22</v>
       </c>
-      <c r="C104" t="s">
-        <v>66</v>
+      <c r="C108" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1947,31 +2048,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,7 +2083,7 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,15 +2112,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2160,7 @@
         <v>53.9</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,7 +2175,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -2083,7 +2184,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2096,7 +2197,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,7 +2220,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3">
         <f>((B3*B16)+(C3*C16))/SUM(B3:C3)/100</f>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6A91D-1C53-4282-A9FE-CCCFD0D19FFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F2265-1E88-4DE8-8292-A62AA7982040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779AC17-0C1A-48A1-9222-BBBF58A68F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716558D-0C7B-4B09-B55E-113050D04D9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="259">
   <si>
     <t>Paper</t>
   </si>
@@ -792,6 +792,30 @@
   </si>
   <si>
     <t>Best Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dymond (2012), </t>
+  </si>
+  <si>
+    <t>National Council for Air and Stream Improvement, Inc: Critical review of forest products decomposition in municipal solid waste landfills. NC: Research Triangle Park; 2004. Technical Bulletin No. 0872.</t>
+  </si>
+  <si>
+    <t>Guess work</t>
+  </si>
+  <si>
+    <t>Needs work</t>
+  </si>
+  <si>
+    <t>Not in use</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>B Watson pers comm.</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -879,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -960,6 +984,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1321,7 @@
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,11 +1348,14 @@
       <c r="B2" s="13">
         <v>0</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="D2" s="14">
-        <f>SUM(B2:B13)</f>
+        <f>SUM(B2:B12)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -1331,7 +1369,7 @@
         <v>216</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
@@ -1344,7 +1382,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1357,7 +1395,7 @@
         <v>214</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
@@ -1370,7 +1408,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1385,7 +1423,7 @@
         <v>214</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1400,7 +1438,7 @@
         <v>214</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -1411,9 +1449,11 @@
       <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
@@ -1422,1197 +1462,1257 @@
       <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B12" s="13">
-        <v>7.7799999999999994E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>215</v>
+      <c r="A13" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="13">
-        <v>1.38E-2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(B13:B23)</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="E13" s="27"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <f>SUM(B14:B25)</f>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <f>0.1371</f>
+        <v>0.1371</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B15" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="14">
+        <f>SUM(B24:B34)</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="13">
         <f>0.1371</f>
         <v>0.1371</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="13">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="13">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="13">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="13">
-        <v>1.38E-2</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
-        <f>SUM(B26:B37)</f>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="B27" s="13">
-        <f>0.1371</f>
-        <v>0.1371</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B28" s="13">
-        <v>2.4E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="B29" s="13">
-        <v>0.68700000000000006</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="13">
-        <v>4.4200000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B31" s="13">
-        <v>1.5599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B32" s="13">
         <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="B33" s="13">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12"/>
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="B34" s="13">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>42</v>
+      <c r="A35" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="11"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="14">
+        <f>SUM(B35:B47)</f>
+        <v>0.99992536999999992</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>223</v>
+      <c r="A36" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="B36" s="13">
-        <v>7.7799999999999994E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>224</v>
+      <c r="A37" s="29" t="s">
+        <v>232</v>
       </c>
       <c r="B37" s="13">
-        <v>1.38E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="13">
-        <v>0.35499999999999998</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D38" s="14">
-        <f>SUM(B38:B50)</f>
-        <v>0.99992536999999992</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>219</v>
-      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="13">
-        <v>7.0000000000000001E-3</v>
+        <f>0.052+0.031</f>
+        <v>8.299999999999999E-2</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B40" s="13">
-        <v>6.8000000000000005E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B41" s="13">
-        <v>4.2999999999999997E-2</v>
+        <f>0.439*0.2755</f>
+        <v>0.12094450000000001</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B42" s="13">
-        <f>0.052+0.031</f>
-        <v>8.299999999999999E-2</v>
+        <f>0.439*0.01857</f>
+        <v>8.1522299999999999E-3</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B43" s="13">
-        <v>5.0000000000000001E-3</v>
+        <f>0.439*0.0774</f>
+        <v>3.3978599999999998E-2</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B44" s="13">
-        <f>0.439*0.2755</f>
-        <v>0.12094450000000001</v>
+        <f>0.439*0.1269</f>
+        <v>5.5709100000000004E-2</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B45" s="13">
-        <f>0.439*0.01857</f>
-        <v>8.1522299999999999E-3</v>
+        <f>0.439*0.0928</f>
+        <v>4.0739199999999996E-2</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B46" s="13">
-        <f>0.439*0.0774</f>
-        <v>3.3978599999999998E-2</v>
+        <f>0.439*0.26006</f>
+        <v>0.11416634000000001</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D46" s="14"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B47" s="13">
-        <f>0.439*0.1269</f>
-        <v>5.5709100000000004E-2</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="13">
-        <f>0.439*0.0928</f>
-        <v>4.0739199999999996E-2</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="13">
-        <f>0.439*0.26006</f>
-        <v>0.11416634000000001</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="13">
         <f>0.439*0.1486</f>
         <v>6.5235399999999999E-2</v>
       </c>
+      <c r="C47" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="14">
+        <f>SUM(B48:B51)</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="13">
+        <f>0.033+0.068</f>
+        <v>0.10100000000000001</v>
+      </c>
       <c r="C50" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>132</v>
+      <c r="A51" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="B51" s="13">
         <v>0</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="14">
-        <f>SUM(B51:B53)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="C51" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>133</v>
+      <c r="A52" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="B52" s="13">
         <v>0</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="33">
+        <f>SUM(B53:B61)</f>
+        <v>1.0004400000000002</v>
+      </c>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B54" s="13">
-        <v>0.26100000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="14">
-        <f>SUM(B54:B57)</f>
-        <v>1</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="30"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="B55" s="13">
-        <v>0.63800000000000001</v>
+        <f>0.775*0.28</f>
+        <v>0.21700000000000003</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="B56" s="13">
-        <f>0.033+0.068</f>
-        <v>0.10100000000000001</v>
+        <f>0.775*0.014</f>
+        <v>1.085E-2</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="B57" s="13">
-        <v>0</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="11"/>
+        <f>0.775*0.08</f>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="B58" s="13">
-        <v>0</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="13">
-        <v>1</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="14">
-        <f>SUM(B59:B59)</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" s="19">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B61" s="13">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="13">
-        <f>0.775*0.28</f>
-        <v>0.21700000000000003</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="13">
-        <f>0.775*0.014</f>
-        <v>1.085E-2</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="13">
-        <f>0.775*0.08</f>
-        <v>6.2000000000000006E-2</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="13">
         <f>0.775*0.13</f>
         <v>0.10075000000000001</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="C58" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B59" s="13">
         <f>0.775*0.097</f>
         <v>7.5175000000000006E-2</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="C59" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B60" s="13">
         <f>0.775*0.26</f>
         <v>0.20150000000000001</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="C60" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B61" s="13">
         <f>0.775*0.1486</f>
         <v>0.11516500000000002</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="C61" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="14">
-        <f>SUM(B69:B77)</f>
-        <v>1.0088624700000002</v>
-      </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="B62" s="13">
+        <v>0.151</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="14">
+        <f>SUM(B62:B70)</f>
+        <v>0.99986247000000006</v>
+      </c>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B63" s="13">
         <v>0.04</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="C63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B64" s="13">
         <f>0.809*0.2755</f>
         <v>0.22287950000000004</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="C64" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B65" s="13">
         <f>0.809*0.01857</f>
         <v>1.5023130000000001E-2</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+      <c r="C65" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B66" s="13">
         <f>0.809*0.0774</f>
         <v>6.2616599999999994E-2</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="C66" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B67" s="13">
         <f>0.809*0.1269</f>
         <v>0.10266210000000002</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="C67" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B68" s="13">
         <f>0.809*0.0928</f>
         <v>7.5075199999999995E-2</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="C68" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B69" s="13">
         <f>0.809*0.26006</f>
         <v>0.21038854000000001</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="C69" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B70" s="13">
         <f>0.809*0.1486</f>
         <v>0.12021740000000002</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+      <c r="C70" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B71" s="13">
         <f>1*0.2755</f>
         <v>0.27550000000000002</v>
       </c>
+      <c r="C71" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="27"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="13">
+        <f>1*0.01857</f>
+        <v>1.857E-2</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="27"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="13">
+        <f>1*0.0774</f>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="27"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="13">
+        <f>1*0.1269</f>
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="27"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="13">
+        <f>1*0.0928</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="27"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="13">
+        <f>1*0.26006</f>
+        <v>0.26006000000000001</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="27"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="13">
+        <f>1*0.1486</f>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1</v>
+      </c>
       <c r="C78" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="D78" s="14">
+        <f>SUM(B78:B78)</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="27"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B79" s="13">
-        <f>1*0.01857</f>
-        <v>1.857E-2</v>
+        <v>1</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="11"/>
+      <c r="E79" s="27"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
-        <v>119</v>
+      <c r="A80" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="B80" s="13">
-        <f>1*0.0774</f>
-        <v>7.7399999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="11"/>
+      <c r="E80" s="27"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
-        <v>120</v>
+      <c r="A81" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="B81" s="13">
-        <f>1*0.1269</f>
-        <v>0.12690000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="11"/>
+      <c r="E81" s="27"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
-        <v>121</v>
+      <c r="A82" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="B82" s="13">
-        <f>1*0.0928</f>
-        <v>9.2799999999999994E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="27"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B83" s="13">
-        <f>1*0.26006</f>
-        <v>0.26006000000000001</v>
+        <v>0</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="D83" s="14">
+        <f>SUM(B83:B85)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B84" s="13">
-        <f>1*0.1486</f>
-        <v>0.14860000000000001</v>
+        <v>0</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="27"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
-        <v>141</v>
+      <c r="A85" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="B85" s="13">
+        <v>0</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="15"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="14">
+        <f>SUM(B86:B94)</f>
         <v>1</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="27"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>143</v>
+      <c r="A87" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="B87" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="27"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="27"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="13">
         <v>0.1</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B89" s="13">
+      <c r="C89" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="27"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" s="13">
         <v>0.15</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="14">
-        <f>SUM(B89:B97)</f>
-        <v>1</v>
-      </c>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C90" s="12"/>
+      <c r="C90" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="27"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
-        <v>242</v>
+      <c r="A91" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="B91" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C91" s="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="D91" s="14"/>
-      <c r="E91" s="11"/>
+      <c r="E91" s="27"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>243</v>
+      <c r="A92" s="28" t="s">
+        <v>246</v>
       </c>
       <c r="B92" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="C92" s="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>244</v>
+      <c r="E92" s="27"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="B93" s="13">
         <v>0.15</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="D93" s="14"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B94" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C94" s="12"/>
+      <c r="E93" s="27"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="D94" s="14"/>
-      <c r="E94" s="11"/>
+      <c r="E94" s="27"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>246</v>
+      <c r="A95" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="B95" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C95" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D95" s="14"/>
-      <c r="E95" s="11"/>
+      <c r="E95" s="27"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>247</v>
+      <c r="A96" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B96" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C96" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D96" s="14"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="27"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B97" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C97" s="1"/>
+      <c r="A97" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="13">
+        <v>75</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="27"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>16</v>
+      <c r="A98" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="B98" s="13">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="14"/>
-      <c r="E98" s="11"/>
+      <c r="E98" s="27"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
-        <v>17</v>
+      <c r="A99" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="B99" s="13">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="14"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
-        <v>18</v>
+      <c r="E99" s="27"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="B100" s="13">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
-        <v>19</v>
+      <c r="E100" s="31"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="B101" s="13">
         <v>38</v>
@@ -2620,163 +2720,167 @@
       <c r="C101" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
-        <v>26</v>
+      <c r="D101" s="15"/>
+      <c r="E101" s="31"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="B102" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
-        <v>20</v>
+      <c r="D102" s="15"/>
+      <c r="E102" s="31"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B103" s="13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>21</v>
+      <c r="D103" s="15"/>
+      <c r="E103" s="31"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="B104" s="13">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
-        <v>22</v>
+      <c r="E104" s="27"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="B105" s="13">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="C105" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="27"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="13">
+        <v>29</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="15"/>
+      <c r="E106" s="27"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="15"/>
+      <c r="E107" s="27"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="27"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="13">
+        <v>8.25</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="13">
+        <v>5</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="13">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="14">
+        <f>SUM(B112:B113)</f>
         <v>1</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="13">
-        <v>2</v>
-      </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="13">
-        <v>5</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="C109" s="12" t="s">
+      <c r="E111" s="27"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="14">
-        <f>SUM(B110:B111)</f>
-        <v>1</v>
-      </c>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="13">
+      <c r="D112" s="15"/>
+      <c r="E112" s="27"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" s="13">
         <v>0.5</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="C113" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="15"/>
+      <c r="E113" s="27"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="B112" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="B114" s="13">
         <v>0.03</v>
@@ -2785,11 +2889,11 @@
         <v>40</v>
       </c>
       <c r="D114" s="15"/>
-      <c r="E114" s="11"/>
+      <c r="E114" s="27"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
-        <v>45</v>
+      <c r="A115" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B115" s="13">
         <v>0.97</v>
@@ -2798,11 +2902,11 @@
         <v>40</v>
       </c>
       <c r="D115" s="15"/>
-      <c r="E115" s="11"/>
+      <c r="E115" s="27"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
-        <v>34</v>
+      <c r="A116" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B116" s="13">
         <v>0.03</v>
@@ -2811,11 +2915,11 @@
         <v>40</v>
       </c>
       <c r="D116" s="15"/>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>46</v>
+      <c r="E116" s="27"/>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B117" s="13">
         <v>0.97</v>
@@ -2824,11 +2928,11 @@
         <v>40</v>
       </c>
       <c r="D117" s="15"/>
-      <c r="E117" s="11"/>
+      <c r="E117" s="27"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>35</v>
+      <c r="A118" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="B118" s="13">
         <v>0.03</v>
@@ -2837,11 +2941,11 @@
         <v>40</v>
       </c>
       <c r="D118" s="15"/>
-      <c r="E118" s="11"/>
+      <c r="E118" s="27"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>47</v>
+      <c r="A119" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="B119" s="13">
         <v>0.97</v>
@@ -2850,11 +2954,11 @@
         <v>40</v>
       </c>
       <c r="D119" s="15"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
-        <v>36</v>
+      <c r="E119" s="27"/>
+    </row>
+    <row r="120" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="B120" s="13">
         <v>0.03</v>
@@ -2863,11 +2967,11 @@
         <v>40</v>
       </c>
       <c r="D120" s="15"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="27"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
-        <v>48</v>
+      <c r="A121" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="B121" s="13">
         <v>0.97</v>
@@ -2876,11 +2980,11 @@
         <v>40</v>
       </c>
       <c r="D121" s="15"/>
-      <c r="E121" s="11"/>
+      <c r="E121" s="27"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>37</v>
+      <c r="A122" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B122" s="13">
         <v>0.03</v>
@@ -2889,11 +2993,11 @@
         <v>40</v>
       </c>
       <c r="D122" s="15"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="27"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
-        <v>49</v>
+      <c r="A123" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B123" s="13">
         <v>0.97</v>
@@ -2902,11 +3006,11 @@
         <v>40</v>
       </c>
       <c r="D123" s="15"/>
-      <c r="E123" s="11"/>
+      <c r="E123" s="27"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>38</v>
+      <c r="A124" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="B124" s="13">
         <v>0.03</v>
@@ -2915,11 +3019,11 @@
         <v>40</v>
       </c>
       <c r="D124" s="15"/>
-      <c r="E124" s="11"/>
+      <c r="E124" s="27"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>50</v>
+      <c r="A125" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="B125" s="13">
         <v>0.97</v>
@@ -2928,191 +3032,159 @@
         <v>40</v>
       </c>
       <c r="D125" s="15"/>
-      <c r="E125" s="11"/>
+      <c r="E125" s="27"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>65</v>
+      <c r="A126" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="B126" s="13">
         <v>0.03</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D126" s="15"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="27"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
-        <v>66</v>
+      <c r="A127" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="B127" s="13">
         <v>0.97</v>
       </c>
       <c r="C127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="15"/>
+      <c r="E127" s="27"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="11"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+      <c r="D128" s="15"/>
+      <c r="E128" s="27"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="15"/>
+      <c r="E129" s="27"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B130" s="13">
         <v>0.23</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="11"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+      <c r="D130" s="15"/>
+      <c r="E130" s="27"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B131" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C131" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="11"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B130" s="13">
-        <v>29</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="11"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D131" s="15"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="27"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>29</v>
+      <c r="A132" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B132" s="13">
-        <v>16.5</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>39</v>
+        <v>0.5</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="D132" s="15"/>
-      <c r="E132" s="11"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
-        <v>30</v>
+      <c r="E132" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="B133" s="13">
-        <v>8.25</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D133" s="15"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="27"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
-        <v>41</v>
+      <c r="A134" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="B134" s="13">
-        <v>5</v>
-      </c>
-      <c r="C134" s="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D134" s="15"/>
-      <c r="E134" s="11"/>
-    </row>
-    <row r="135" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
-        <v>55</v>
+      <c r="E134" s="27"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="B135" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>0.85</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D135" s="15"/>
-      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
-        <v>69</v>
+      <c r="A136" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B136" s="13">
-        <v>0.99999850000000001</v>
+        <v>0.22</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" s="13">
-        <v>0.98</v>
+      <c r="A137" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.02</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="15"/>
-      <c r="E137" s="11"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B138" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="15"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B139" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>249</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0.02</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716558D-0C7B-4B09-B55E-113050D04D9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD5586F-42DE-4D8D-8010-BC364DC56000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="257">
   <si>
     <t>Paper</t>
   </si>
@@ -674,24 +674,9 @@
     <t>SawMillToOther</t>
   </si>
   <si>
-    <t>RemovedMerchToSawMill</t>
-  </si>
-  <si>
-    <t>RemovedNonMerchToSawMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToSawMill</t>
-  </si>
-  <si>
     <t>Ghafghazi 2016</t>
   </si>
   <si>
-    <t>RemovedMerchToIPP</t>
-  </si>
-  <si>
-    <t>Ghafghazi 2016 has 13.71% going to Pulp Mill but they don't represent Chipper Mill, I have assumed 50% split between chipper and pulp mill</t>
-  </si>
-  <si>
     <t>SawMillToIPP</t>
   </si>
   <si>
@@ -701,21 +686,6 @@
     <t>Surplus sent to pulp</t>
   </si>
   <si>
-    <t>RemovedMerchToLogExport</t>
-  </si>
-  <si>
-    <t>RemovedNonMerchToLogExport</t>
-  </si>
-  <si>
-    <t>RemovedNonMerchToIPP</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToLogExport</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToIPP</t>
-  </si>
-  <si>
     <t>PlywoodMillToIPP</t>
   </si>
   <si>
@@ -791,9 +761,6 @@
     <t>PiledStemwoodToFirewoodDom</t>
   </si>
   <si>
-    <t>Best Estimate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dymond (2012), </t>
   </si>
   <si>
@@ -815,7 +782,34 @@
     <t>B Watson pers comm.</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>GFS22</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>Coast Description</t>
+  </si>
+  <si>
+    <t>Coast QA</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Interior QA</t>
+  </si>
+  <si>
+    <t>Coast Notes</t>
+  </si>
+  <si>
+    <t>Interior Notes</t>
+  </si>
+  <si>
+    <t>GFS22 Notes</t>
+  </si>
+  <si>
+    <t>GFS22 QA</t>
   </si>
 </sst>
 </file>
@@ -871,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +884,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBDEFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -903,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -995,6 +995,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,1882 +1338,2388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>70</v>
+      <c r="E1" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="B2" s="13">
-        <v>0</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D2" s="14">
-        <f>SUM(B2:B12)</f>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>71</v>
+        <f>SUM(B2:B14)</f>
+        <v>0.99992536999999992</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUM(F2:F14)</f>
+        <v>0.99992536999999992</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J2" s="35">
+        <f>SUM(I2:I14)</f>
+        <v>0.99992536999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="B3" s="13">
-        <f>0.1371</f>
-        <v>0.1371</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>124</v>
+      <c r="F3" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="B4" s="13">
-        <v>2.4E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="F4" s="13">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="13">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="13">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>73</v>
+      <c r="F5" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="B6" s="13">
-        <v>4.4200000000000003E-2</v>
+        <f>0.052+0.031</f>
+        <v>8.299999999999999E-2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>74</v>
+      <c r="F6" s="13">
+        <f>0.052+0.031</f>
+        <v>8.299999999999999E-2</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13">
+        <f>0.052+0.031</f>
+        <v>8.299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="B7" s="13">
-        <v>1.5599999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>75</v>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="B8" s="13">
-        <v>0</v>
+        <f>0.439*0.2755</f>
+        <v>0.12094450000000001</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>135</v>
+      <c r="F8" s="13">
+        <f>0.439*0.2755+0.005</f>
+        <v>0.12594450000000001</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13">
+        <f>0.439*0.2755+0.005</f>
+        <v>0.12594450000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="B9" s="13">
-        <v>0</v>
+        <f>0.439*0.01857</f>
+        <v>8.1522299999999999E-3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>136</v>
+      <c r="F9" s="13">
+        <f>0.439*0.01857</f>
+        <v>8.1522299999999999E-3</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13">
+        <f>0.439*0.01857</f>
+        <v>8.1522299999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="B10" s="13">
-        <v>0</v>
+        <f>0.439*0.0774</f>
+        <v>3.3978599999999998E-2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>220</v>
+      <c r="F10" s="13">
+        <f>0.439*0.0774</f>
+        <v>3.3978599999999998E-2</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13">
+        <f>0.439*0.0774</f>
+        <v>3.3978599999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="B11" s="13">
-        <v>7.7799999999999994E-2</v>
+        <f>0.439*0.1269</f>
+        <v>5.5709100000000004E-2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>215</v>
+      <c r="F11" s="13">
+        <f>0.439*0.1269</f>
+        <v>5.5709100000000004E-2</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="13">
+        <f>0.439*0.1269</f>
+        <v>5.5709100000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="B12" s="13">
-        <v>1.38E-2</v>
+        <f>0.439*0.0928</f>
+        <v>4.0739199999999996E-2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="13">
+        <f>0.439*0.0928</f>
+        <v>4.0739199999999996E-2</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13">
+        <f>0.439*0.0928</f>
+        <v>4.0739199999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="B13" s="13">
-        <v>0</v>
+        <f>0.439*0.26006</f>
+        <v>0.11416634000000001</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="14">
-        <f>SUM(B13:B23)</f>
-        <v>0.99950000000000006</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="13">
+        <f>0.439*0.26006</f>
+        <v>0.11416634000000001</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="13">
+        <f>0.439*0.26006</f>
+        <v>0.11416634000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="B14" s="13">
-        <f>0.1371</f>
-        <v>0.1371</v>
+        <f>0.439*0.1486</f>
+        <v>6.5235399999999999E-2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>125</v>
+      <c r="F14" s="13">
+        <f>0.439*0.1486</f>
+        <v>6.5235399999999999E-2</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="13">
+        <f>0.439*0.1486</f>
+        <v>6.5235399999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="B15" s="13">
-        <v>2.4E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(B15:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G15" s="14">
+        <f>SUM(F15:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J15" s="35">
+        <f>SUM(I15:I19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="B16" s="13">
-        <v>0.68700000000000006</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>79</v>
+      <c r="E16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="B17" s="13">
-        <v>4.4200000000000003E-2</v>
+        <f>0.033+0.068</f>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>80</v>
+      <c r="F17" s="13">
+        <f>0.033+0.068</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="13">
+        <f>0.033+0.068</f>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="B18" s="13">
-        <v>1.5599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>81</v>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="B19" s="13">
         <v>0</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="D20" s="33">
+        <f>SUM(B20:B28)</f>
+        <v>1.0004400000000002</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="G20" s="33">
+        <f>SUM(F20:F28)</f>
+        <v>1.0004400000000002</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="J20" s="33">
+        <f>SUM(I20:I28)</f>
+        <v>1.0004400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="B21" s="13">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B22" s="13">
-        <v>7.7799999999999994E-2</v>
+        <f>0.775*0.28</f>
+        <v>0.21700000000000003</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="13">
+        <f>0.775*0.28</f>
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="13">
+        <f>0.775*0.28</f>
+        <v>0.21700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="B23" s="13">
-        <v>1.38E-2</v>
+        <f>0.775*0.014</f>
+        <v>1.085E-2</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>82</v>
+      <c r="F23" s="13">
+        <f>0.775*0.014</f>
+        <v>1.085E-2</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="13">
+        <f>0.775*0.014</f>
+        <v>1.085E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="B24" s="13">
-        <v>0</v>
+        <f>0.775*0.08</f>
+        <v>6.2000000000000006E-2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="14">
-        <f>SUM(B24:B34)</f>
-        <v>0.99950000000000006</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>83</v>
+      <c r="F24" s="13">
+        <f>0.775*0.08</f>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="13">
+        <f>0.775*0.08</f>
+        <v>6.2000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B25" s="13">
-        <f>0.1371</f>
-        <v>0.1371</v>
+        <f>0.775*0.13</f>
+        <v>0.10075000000000001</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="13">
+        <f>0.775*0.13</f>
+        <v>0.10075000000000001</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="13">
+        <f>0.775*0.13</f>
+        <v>0.10075000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="13">
+        <f>0.775*0.097</f>
+        <v>7.5175000000000006E-2</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="13">
+        <f>0.775*0.097</f>
+        <v>7.5175000000000006E-2</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="13">
+        <f>0.775*0.097</f>
+        <v>7.5175000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="13">
+        <f>0.775*0.26</f>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="13">
+        <f>0.775*0.26</f>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="13">
+        <f>0.775*0.26</f>
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="13">
+        <f>0.775*0.1486</f>
+        <v>0.11516500000000002</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="13">
+        <f>0.775*0.1486</f>
+        <v>0.11516500000000002</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="13">
+        <f>0.775*0.1486</f>
+        <v>0.11516500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.151</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="14">
+        <f>SUM(B29:B37)</f>
+        <v>0.99986247000000006</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="13">
+        <v>0.151</v>
+      </c>
+      <c r="G29" s="14">
+        <f>SUM(F29:F37)</f>
+        <v>0.99986247000000006</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="13">
+        <v>0.151</v>
+      </c>
+      <c r="J29" s="35">
+        <f>SUM(I29:I37)</f>
+        <v>0.99986247000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="13">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="B30" s="13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D30" s="14"/>
       <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B31" s="13">
-        <v>0</v>
+        <f>0.809*0.2755</f>
+        <v>0.22287950000000004</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="13">
+        <f>0.809*0.2755</f>
+        <v>0.22287950000000004</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="13">
+        <f>0.809*0.2755</f>
+        <v>0.22287950000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B32" s="13">
-        <v>0</v>
+        <f>0.809*0.01857</f>
+        <v>1.5023130000000001E-2</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D32" s="14"/>
       <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="13">
+        <f>0.809*0.01857</f>
+        <v>1.5023130000000001E-2</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="13">
+        <f>0.809*0.01857</f>
+        <v>1.5023130000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="B33" s="13">
-        <v>7.7799999999999994E-2</v>
+        <f>0.809*0.0774</f>
+        <v>6.2616599999999994E-2</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="13">
+        <f>0.809*0.0774</f>
+        <v>6.2616599999999994E-2</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="13">
+        <f>0.809*0.0774</f>
+        <v>6.2616599999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="B34" s="13">
-        <v>1.38E-2</v>
+        <f>0.809*0.1269</f>
+        <v>0.10266210000000002</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="D34" s="14"/>
       <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>231</v>
+      <c r="F34" s="13">
+        <f>0.809*0.1269</f>
+        <v>0.10266210000000002</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="13">
+        <f>0.809*0.1269</f>
+        <v>0.10266210000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B35" s="13">
-        <v>0.35499999999999998</v>
+        <f>0.809*0.0928</f>
+        <v>7.5075199999999995E-2</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="14">
-        <f>SUM(B35:B47)</f>
-        <v>0.99992536999999992</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="13">
+        <f>0.809*0.0928</f>
+        <v>7.5075199999999995E-2</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="13">
+        <f>0.809*0.0928</f>
+        <v>7.5075199999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="B36" s="13">
-        <v>7.0000000000000001E-3</v>
+        <f>0.809*0.26006</f>
+        <v>0.21038854000000001</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>232</v>
+      <c r="F36" s="13">
+        <f>0.809*0.26006</f>
+        <v>0.21038854000000001</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="13">
+        <f>0.809*0.26006</f>
+        <v>0.21038854000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="B37" s="13">
-        <v>6.8000000000000005E-2</v>
+        <f>0.809*0.1486</f>
+        <v>0.12021740000000002</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="13">
+        <f>0.809*0.1486</f>
+        <v>0.12021740000000002</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="13">
+        <f>0.809*0.1486</f>
+        <v>0.12021740000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="B38" s="13">
-        <v>4.2999999999999997E-2</v>
+        <f>1*0.2755</f>
+        <v>0.27550000000000002</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="D38" s="14">
+        <f>SUM(B38:B44)</f>
+        <v>0.99983</v>
+      </c>
       <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="13">
+        <f>1*0.2755</f>
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="G38" s="14">
+        <f>SUM(F38:F44)</f>
+        <v>0.99983</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="13">
+        <f>1*0.2755</f>
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="J38" s="35">
+        <f>SUM(I38:I44)</f>
+        <v>0.99983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="B39" s="13">
-        <f>0.052+0.031</f>
-        <v>8.299999999999999E-2</v>
+        <f>1*0.01857</f>
+        <v>1.857E-2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="13">
+        <f>1*0.01857</f>
+        <v>1.857E-2</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="13">
+        <f>1*0.01857</f>
+        <v>1.857E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="B40" s="13">
-        <v>5.0000000000000001E-3</v>
+        <f>1*0.0774</f>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="13">
+        <f>1*0.0774</f>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="13">
+        <f>1*0.0774</f>
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="B41" s="13">
-        <f>0.439*0.2755</f>
-        <v>0.12094450000000001</v>
+        <f>1*0.1269</f>
+        <v>0.12690000000000001</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="13">
+        <f>1*0.1269</f>
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="13">
+        <f>1*0.1269</f>
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="B42" s="13">
-        <f>0.439*0.01857</f>
-        <v>8.1522299999999999E-3</v>
+        <f>1*0.0928</f>
+        <v>9.2799999999999994E-2</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="13">
+        <f>1*0.0928</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="13">
+        <f>1*0.0928</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B43" s="13">
-        <f>0.439*0.0774</f>
-        <v>3.3978599999999998E-2</v>
+        <f>1*0.26006</f>
+        <v>0.26006000000000001</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="13">
+        <f>1*0.26006</f>
+        <v>0.26006000000000001</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="13">
+        <f>1*0.26006</f>
+        <v>0.26006000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="B44" s="13">
-        <f>0.439*0.1269</f>
-        <v>5.5709100000000004E-2</v>
+        <f>1*0.1486</f>
+        <v>0.14860000000000001</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>208</v>
+      <c r="F44" s="13">
+        <f>1*0.1486</f>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="13">
+        <f>1*0.1486</f>
+        <v>0.14860000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="B45" s="13">
-        <f>0.439*0.0928</f>
-        <v>4.0739199999999996E-2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="D45" s="14">
+        <f>SUM(B45:B45)</f>
+        <v>1</v>
+      </c>
       <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="35">
+        <f>SUM(I45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B46" s="13">
-        <f>0.439*0.26006</f>
-        <v>0.11416634000000001</v>
+        <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>210</v>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="B47" s="13">
-        <f>0.439*0.1486</f>
-        <v>6.5235399999999999E-2</v>
+        <v>0.8</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B48" s="13">
-        <v>0.26100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="14">
-        <f>SUM(B48:B51)</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="B49" s="13">
-        <v>0.63800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="B50" s="13">
-        <f>0.033+0.068</f>
-        <v>0.10100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="D50" s="14">
+        <f>SUM(B50:B52)</f>
+        <v>0</v>
+      </c>
       <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>237</v>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="B51" s="13">
         <v>0</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
-        <v>238</v>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="B52" s="13">
         <v>0</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="19">
-        <v>0.19</v>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0.15</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="33">
+        <v>243</v>
+      </c>
+      <c r="D53" s="14">
         <f>SUM(B53:B61)</f>
-        <v>1.0004400000000002</v>
-      </c>
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>225</v>
+        <v>1</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G53" s="14">
+        <f>SUM(F53:F61)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="J53" s="35">
+        <f>SUM(I53:I61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>231</v>
       </c>
       <c r="B54" s="13">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="30"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
-        <v>102</v>
+      <c r="E54" s="27"/>
+      <c r="F54" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="B55" s="13">
-        <f>0.775*0.28</f>
-        <v>0.21700000000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>103</v>
+      <c r="F55" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="B56" s="13">
-        <f>0.775*0.014</f>
-        <v>1.085E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>104</v>
+      <c r="F56" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="B57" s="13">
-        <f>0.775*0.08</f>
-        <v>6.2000000000000006E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="27"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>105</v>
+      <c r="F57" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="B58" s="13">
-        <f>0.775*0.13</f>
-        <v>0.10075000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>106</v>
+      <c r="F58" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="B59" s="13">
-        <f>0.775*0.097</f>
-        <v>7.5175000000000006E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="27"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>107</v>
+      <c r="F59" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="B60" s="13">
-        <f>0.775*0.26</f>
-        <v>0.20150000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="13">
-        <f>0.775*0.1486</f>
-        <v>0.11516500000000002</v>
+      <c r="F60" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="27"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>229</v>
+      <c r="F61" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="B62" s="13">
-        <v>0.151</v>
+        <v>90</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="14">
-        <f>SUM(B62:B70)</f>
-        <v>0.99986247000000006</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D62" s="14"/>
       <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
-        <v>226</v>
+      <c r="F62" s="13">
+        <v>90</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B63" s="13">
-        <v>0.04</v>
+        <v>75</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="27"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
-        <v>110</v>
+      <c r="F63" s="13">
+        <v>75</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="B64" s="13">
-        <f>0.809*0.2755</f>
-        <v>0.22287950000000004</v>
+        <v>75</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>111</v>
+      <c r="F64" s="13">
+        <v>75</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="B65" s="13">
-        <f>0.809*0.01857</f>
-        <v>1.5023130000000001E-2</v>
+        <v>38</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
-        <v>112</v>
+      <c r="F65" s="13">
+        <v>38</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="B66" s="13">
-        <f>0.809*0.0774</f>
-        <v>6.2616599999999994E-2</v>
+        <v>2</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
-        <v>113</v>
+      <c r="F66" s="13">
+        <v>2</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="B67" s="13">
-        <f>0.809*0.1269</f>
-        <v>0.10266210000000002</v>
+        <v>30</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="28" t="s">
-        <v>114</v>
+      <c r="E67" s="31"/>
+      <c r="F67" s="13">
+        <v>30</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="B68" s="13">
-        <f>0.809*0.0928</f>
-        <v>7.5075199999999995E-2</v>
+        <v>38</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="27"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="28" t="s">
-        <v>115</v>
+        <v>24</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="13">
+        <v>38</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="B69" s="13">
-        <f>0.809*0.26006</f>
-        <v>0.21038854000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
-        <v>116</v>
+        <v>24</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B70" s="13">
-        <f>0.809*0.1486</f>
-        <v>0.12021740000000002</v>
+        <v>1</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="27"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B71" s="13">
-        <f>1*0.2755</f>
-        <v>0.27550000000000002</v>
+        <v>2</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="D71" s="15"/>
       <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="13">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B72" s="13">
-        <f>1*0.01857</f>
-        <v>1.857E-2</v>
+        <v>10</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="14"/>
+        <v>246</v>
+      </c>
+      <c r="D72" s="15"/>
       <c r="E72" s="27"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="13">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B73" s="13">
-        <f>1*0.0774</f>
-        <v>7.7399999999999997E-2</v>
+        <v>29</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="D73" s="15"/>
       <c r="E73" s="27"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="13">
+        <v>29</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B74" s="13">
-        <f>1*0.1269</f>
-        <v>0.12690000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="D74" s="15"/>
       <c r="E74" s="27"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="13">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="29" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="B75" s="13">
-        <f>1*0.0928</f>
-        <v>9.2799999999999994E-2</v>
+        <v>16.5</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="D75" s="15"/>
       <c r="E75" s="27"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="13">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="29" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="B76" s="13">
-        <f>1*0.26006</f>
-        <v>0.26006000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="27"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F76" s="13">
+        <v>8.25</v>
+      </c>
+      <c r="I76" s="13">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B77" s="13">
-        <f>1*0.1486</f>
-        <v>0.14860000000000001</v>
+        <v>5</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="27"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F77" s="13">
+        <v>5</v>
+      </c>
+      <c r="I77" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="B78" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="14">
+        <f>SUM(B79:B80)</f>
         <v>1</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" s="14">
-        <f>SUM(B78:B78)</f>
-        <v>1</v>
-      </c>
       <c r="E78" s="27"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
-        <v>141</v>
+      <c r="F78" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="B79" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="D79" s="15"/>
       <c r="E79" s="27"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B80" s="13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D80" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="D80" s="15"/>
       <c r="E80" s="27"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
-        <v>143</v>
+      <c r="F80" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="B81" s="13">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D81" s="15"/>
       <c r="E81" s="27"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
-        <v>144</v>
+      <c r="F81" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B82" s="13">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D82" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D82" s="15"/>
       <c r="E82" s="27"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="29" t="s">
-        <v>132</v>
+      <c r="F82" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B83" s="13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="14">
-        <f>SUM(B83:B85)</f>
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D83" s="15"/>
       <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
-        <v>133</v>
+      <c r="F83" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B84" s="13">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="27"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="B85" s="13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
-        <v>240</v>
+      <c r="E85" s="27"/>
+      <c r="F85" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="B86" s="13">
-        <v>0.15</v>
+        <v>0.97</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="14">
-        <f>SUM(B86:B94)</f>
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D86" s="15"/>
       <c r="E86" s="27"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="B87" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D87" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D87" s="15"/>
       <c r="E87" s="27"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="B88" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.97</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D88" s="15"/>
       <c r="E88" s="27"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
-        <v>243</v>
+      <c r="F88" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B89" s="13">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D89" s="15"/>
       <c r="E89" s="27"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
-        <v>244</v>
+      <c r="F89" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B90" s="13">
-        <v>0.15</v>
+        <v>0.97</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D90" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D90" s="15"/>
       <c r="E90" s="27"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="B91" s="13">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D91" s="15"/>
       <c r="E91" s="27"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="B92" s="13">
-        <v>0.15</v>
+        <v>0.97</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D92" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D92" s="15"/>
       <c r="E92" s="27"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
-        <v>247</v>
+      <c r="F92" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="B93" s="13">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D93" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D93" s="15"/>
       <c r="E93" s="27"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0.1</v>
+      <c r="F93" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="13">
+        <v>0.97</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D94" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D94" s="15"/>
       <c r="E94" s="27"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="29" t="s">
-        <v>16</v>
+      <c r="F94" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="B95" s="13">
-        <v>90</v>
+        <v>0.03</v>
       </c>
       <c r="C95" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G96" s="15"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="27"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="13">
-        <v>75</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="27"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="13">
-        <v>75</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="27"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="29" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B98" s="13">
-        <v>38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="14"/>
+      <c r="D98" s="15"/>
       <c r="E98" s="27"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
-        <v>26</v>
+      <c r="F98" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G98" s="15"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B99" s="13">
-        <v>2</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="27"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="29" t="s">
-        <v>20</v>
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F99" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="B100" s="13">
-        <v>30</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="31"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="29" t="s">
-        <v>21</v>
+      <c r="D100" s="15"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="13">
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="13">
+        <v>0.99999850000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="B101" s="13">
-        <v>38</v>
+        <v>0.98</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="31"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="29" t="s">
-        <v>22</v>
+      <c r="E101" s="27"/>
+      <c r="F101" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="B102" s="13">
-        <v>2.5</v>
+        <v>0.85</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="31"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
-        <v>68</v>
+      <c r="F102" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="I102" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B103" s="13">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="31"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="13">
-        <v>2</v>
+      <c r="F103" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="I103" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.02</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" s="13">
-        <v>10</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="27"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="13">
-        <v>29</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="27"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="27"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" s="13">
-        <v>16.5</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="27"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="13">
-        <v>8.25</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" s="13">
-        <v>5</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="14">
-        <f>SUM(B112:B113)</f>
-        <v>1</v>
-      </c>
-      <c r="E111" s="27"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="27"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B113" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="27"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="27"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="27"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="27"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B117" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="27"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="15"/>
-      <c r="E118" s="27"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B119" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="27"/>
-    </row>
-    <row r="120" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="27"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B121" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="27"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="27"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="27"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="27"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="27"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="27"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="27"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="27"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="27"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="27"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B131" s="13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D131" s="15"/>
-      <c r="E131" s="27"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B132" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D132" s="15"/>
-      <c r="E132" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="13">
-        <v>0.99999850000000001</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="27"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="27"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B136" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="B137" s="3">
+        <v>242</v>
+      </c>
+      <c r="F104" s="3">
         <v>0.02</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>253</v>
+      <c r="I104" s="3">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD5586F-42DE-4D8D-8010-BC364DC56000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B558289-B1DB-4023-873C-F5671512CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -952,19 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -984,20 +971,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1341,7 +1322,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,10 +1331,10 @@
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="17.21875" customWidth="1"/>
@@ -1363,39 +1344,39 @@
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="33" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="13">
@@ -1408,7 +1389,7 @@
         <f>SUM(B2:B14)</f>
         <v>0.99992536999999992</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>214</v>
       </c>
       <c r="F2" s="13">
@@ -1418,19 +1399,19 @@
         <f>SUM(F2:F14)</f>
         <v>0.99992536999999992</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="22" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="13">
         <v>0.35499999999999998</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="27">
         <f>SUM(I2:I14)</f>
         <v>0.99992536999999992</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>213</v>
       </c>
       <c r="B3" s="13">
@@ -1440,18 +1421,18 @@
         <v>211</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="27"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="13">
@@ -1461,18 +1442,18 @@
         <v>211</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>220</v>
       </c>
       <c r="B5" s="13">
@@ -1482,18 +1463,18 @@
         <v>211</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B6" s="13">
@@ -1504,20 +1485,20 @@
         <v>211</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="13">
         <f>0.052+0.031</f>
         <v>8.299999999999999E-2</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="13">
         <f>0.052+0.031</f>
         <v>8.299999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="24" t="s">
         <v>223</v>
       </c>
       <c r="B7" s="13">
@@ -1527,18 +1508,18 @@
         <v>211</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="13">
@@ -1549,20 +1530,20 @@
         <v>211</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="13">
         <f>0.439*0.2755+0.005</f>
         <v>0.12594450000000001</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="13">
         <f>0.439*0.2755+0.005</f>
         <v>0.12594450000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="13">
@@ -1573,20 +1554,20 @@
         <v>211</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="13">
         <f>0.439*0.01857</f>
         <v>8.1522299999999999E-3</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="27"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="13">
         <f>0.439*0.01857</f>
         <v>8.1522299999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="13">
@@ -1597,20 +1578,20 @@
         <v>211</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="13">
         <f>0.439*0.0774</f>
         <v>3.3978599999999998E-2</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="13">
         <f>0.439*0.0774</f>
         <v>3.3978599999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="13">
@@ -1621,20 +1602,20 @@
         <v>211</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="13">
         <f>0.439*0.1269</f>
         <v>5.5709100000000004E-2</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="13">
         <f>0.439*0.1269</f>
         <v>5.5709100000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="24" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="13">
@@ -1645,20 +1626,20 @@
         <v>211</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="13">
         <f>0.439*0.0928</f>
         <v>4.0739199999999996E-2</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="13">
         <f>0.439*0.0928</f>
         <v>4.0739199999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="24" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="13">
@@ -1669,20 +1650,20 @@
         <v>211</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="13">
         <f>0.439*0.26006</f>
         <v>0.11416634000000001</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="13">
         <f>0.439*0.26006</f>
         <v>0.11416634000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="24" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="13">
@@ -1693,20 +1674,20 @@
         <v>211</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="13">
         <f>0.439*0.1486</f>
         <v>6.5235399999999999E-2</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="13">
         <f>0.439*0.1486</f>
         <v>6.5235399999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>224</v>
       </c>
       <c r="B15" s="13">
@@ -1719,7 +1700,7 @@
         <f>SUM(B15:B18)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="13">
@@ -1729,19 +1710,19 @@
         <f>SUM(F15:F19)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="13">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="27">
         <f>SUM(I15:I19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>225</v>
       </c>
       <c r="B16" s="13">
@@ -1751,14 +1732,14 @@
         <v>211</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="22" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="13">
         <v>0.63800000000000001</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="22" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="13">
@@ -1766,7 +1747,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>226</v>
       </c>
       <c r="B17" s="13">
@@ -1777,20 +1758,20 @@
         <v>211</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="13">
         <f>0.033+0.068</f>
         <v>0.10100000000000001</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="13">
         <f>0.033+0.068</f>
         <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>227</v>
       </c>
       <c r="B18" s="13">
@@ -1800,18 +1781,18 @@
         <v>244</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>228</v>
       </c>
       <c r="B19" s="13">
@@ -1821,53 +1802,53 @@
         <v>244</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="3">
         <v>0.19</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="27">
         <f>SUM(B20:B28)</f>
         <v>1.0004400000000002</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="19">
+      <c r="E20" s="22"/>
+      <c r="F20" s="3">
         <v>0.19</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="27">
         <f>SUM(F20:F28)</f>
         <v>1.0004400000000002</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19">
+      <c r="H20" s="22"/>
+      <c r="I20" s="3">
         <v>0.19</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="27">
         <f>SUM(I20:I28)</f>
         <v>1.0004400000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B21" s="13">
@@ -1877,19 +1858,18 @@
         <v>211</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="13">
@@ -1900,20 +1880,20 @@
         <v>211</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="13">
         <f>0.775*0.28</f>
         <v>0.21700000000000003</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="13">
         <f>0.775*0.28</f>
         <v>0.21700000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B23" s="13">
@@ -1924,20 +1904,20 @@
         <v>211</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="13">
         <f>0.775*0.014</f>
         <v>1.085E-2</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="13">
         <f>0.775*0.014</f>
         <v>1.085E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="13">
@@ -1948,20 +1928,20 @@
         <v>211</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="13">
         <f>0.775*0.08</f>
         <v>6.2000000000000006E-2</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="13">
         <f>0.775*0.08</f>
         <v>6.2000000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="13">
@@ -1972,20 +1952,20 @@
         <v>211</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="13">
         <f>0.775*0.13</f>
         <v>0.10075000000000001</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="27"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="13">
         <f>0.775*0.13</f>
         <v>0.10075000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B26" s="13">
@@ -1996,20 +1976,20 @@
         <v>211</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="13">
         <f>0.775*0.097</f>
         <v>7.5175000000000006E-2</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="13">
         <f>0.775*0.097</f>
         <v>7.5175000000000006E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="13">
@@ -2020,20 +2000,20 @@
         <v>211</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="13">
         <f>0.775*0.26</f>
         <v>0.20150000000000001</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="27"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="13">
         <f>0.775*0.26</f>
         <v>0.20150000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="13">
@@ -2044,20 +2024,20 @@
         <v>211</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="13">
         <f>0.775*0.1486</f>
         <v>0.11516500000000002</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="27"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="13">
         <f>0.775*0.1486</f>
         <v>0.11516500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="23" t="s">
         <v>219</v>
       </c>
       <c r="B29" s="13">
@@ -2070,7 +2050,7 @@
         <f>SUM(B29:B37)</f>
         <v>0.99986247000000006</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="13">
         <v>0.151</v>
       </c>
@@ -2078,17 +2058,17 @@
         <f>SUM(F29:F37)</f>
         <v>0.99986247000000006</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="13">
         <v>0.151</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="27">
         <f>SUM(I29:I37)</f>
         <v>0.99986247000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="23" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="13">
@@ -2098,18 +2078,18 @@
         <v>211</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="13">
         <v>0.04</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="13">
         <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="13">
@@ -2120,20 +2100,20 @@
         <v>211</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="13">
         <f>0.809*0.2755</f>
         <v>0.22287950000000004</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="13">
         <f>0.809*0.2755</f>
         <v>0.22287950000000004</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="13">
@@ -2144,20 +2124,20 @@
         <v>211</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="13">
         <f>0.809*0.01857</f>
         <v>1.5023130000000001E-2</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="13">
         <f>0.809*0.01857</f>
         <v>1.5023130000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B33" s="13">
@@ -2168,20 +2148,20 @@
         <v>211</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="13">
         <f>0.809*0.0774</f>
         <v>6.2616599999999994E-2</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="13">
         <f>0.809*0.0774</f>
         <v>6.2616599999999994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B34" s="13">
@@ -2192,20 +2172,20 @@
         <v>211</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="13">
         <f>0.809*0.1269</f>
         <v>0.10266210000000002</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="13">
         <f>0.809*0.1269</f>
         <v>0.10266210000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B35" s="13">
@@ -2216,20 +2196,20 @@
         <v>211</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="13">
         <f>0.809*0.0928</f>
         <v>7.5075199999999995E-2</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="13">
         <f>0.809*0.0928</f>
         <v>7.5075199999999995E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="13">
@@ -2240,20 +2220,20 @@
         <v>211</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="13">
         <f>0.809*0.26006</f>
         <v>0.21038854000000001</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="13">
         <f>0.809*0.26006</f>
         <v>0.21038854000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="13">
@@ -2264,20 +2244,20 @@
         <v>211</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="13">
         <f>0.809*0.1486</f>
         <v>0.12021740000000002</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="13">
         <f>0.809*0.1486</f>
         <v>0.12021740000000002</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="13">
@@ -2291,7 +2271,7 @@
         <f>SUM(B38:B44)</f>
         <v>0.99983</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="13">
         <f>1*0.2755</f>
         <v>0.27550000000000002</v>
@@ -2300,18 +2280,18 @@
         <f>SUM(F38:F44)</f>
         <v>0.99983</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="13">
         <f>1*0.2755</f>
         <v>0.27550000000000002</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="27">
         <f>SUM(I38:I44)</f>
         <v>0.99983</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="13">
@@ -2322,20 +2302,20 @@
         <v>211</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="13">
         <f>1*0.01857</f>
         <v>1.857E-2</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="13">
         <f>1*0.01857</f>
         <v>1.857E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="13">
@@ -2346,20 +2326,20 @@
         <v>211</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="13">
         <f>1*0.0774</f>
         <v>7.7399999999999997E-2</v>
       </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="13">
         <f>1*0.0774</f>
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="13">
@@ -2370,20 +2350,20 @@
         <v>211</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>1*0.1269</f>
         <v>0.12690000000000001</v>
       </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="27"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="13">
         <f>1*0.1269</f>
         <v>0.12690000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="13">
@@ -2394,20 +2374,20 @@
         <v>211</v>
       </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="13">
         <f>1*0.0928</f>
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="27"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="13">
         <f>1*0.0928</f>
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B43" s="13">
@@ -2418,20 +2398,20 @@
         <v>211</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="13">
         <f>1*0.26006</f>
         <v>0.26006000000000001</v>
       </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="13">
         <f>1*0.26006</f>
         <v>0.26006000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="24" t="s">
         <v>123</v>
       </c>
       <c r="B44" s="13">
@@ -2442,20 +2422,20 @@
         <v>211</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="13">
         <f>1*0.1486</f>
         <v>0.14860000000000001</v>
       </c>
       <c r="G44" s="14"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="13">
         <f>1*0.1486</f>
         <v>0.14860000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="23" t="s">
         <v>229</v>
       </c>
       <c r="B45" s="13">
@@ -2468,22 +2448,22 @@
         <f>SUM(B45:B45)</f>
         <v>1</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="14"/>
-      <c r="H45" s="27"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="13">
         <v>1</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="27">
         <f>SUM(I45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="24" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="13">
@@ -2493,18 +2473,18 @@
         <v>244</v>
       </c>
       <c r="D46" s="14"/>
-      <c r="E46" s="27"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="14"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B47" s="13">
@@ -2514,18 +2494,18 @@
         <v>244</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="13">
         <v>0.8</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="27"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="23" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="13">
@@ -2535,18 +2515,18 @@
         <v>244</v>
       </c>
       <c r="D48" s="14"/>
-      <c r="E48" s="27"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="13">
         <v>0.1</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="23" t="s">
         <v>144</v>
       </c>
       <c r="B49" s="13">
@@ -2556,18 +2536,18 @@
         <v>244</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="27"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="13">
         <v>0.1</v>
       </c>
       <c r="G49" s="14"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="13">
@@ -2580,18 +2560,18 @@
         <f>SUM(B50:B52)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="13">
         <v>0</v>
       </c>
       <c r="G50" s="14"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B51" s="13">
@@ -2601,18 +2581,18 @@
         <v>244</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51" s="15"/>
-      <c r="H51" s="27"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B52" s="13">
@@ -2631,7 +2611,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="23" t="s">
         <v>230</v>
       </c>
       <c r="B53" s="13">
@@ -2644,7 +2624,7 @@
         <f>SUM(B53:B61)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="27"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="13">
         <v>0.15</v>
       </c>
@@ -2652,17 +2632,17 @@
         <f>SUM(F53:F61)</f>
         <v>1</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="13">
         <v>0.15</v>
       </c>
-      <c r="J53" s="35">
+      <c r="J53" s="27">
         <f>SUM(I53:I61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="23" t="s">
         <v>231</v>
       </c>
       <c r="B54" s="13">
@@ -2672,18 +2652,18 @@
         <v>243</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="23" t="s">
         <v>232</v>
       </c>
       <c r="B55" s="13">
@@ -2693,18 +2673,18 @@
         <v>243</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="23" t="s">
         <v>233</v>
       </c>
       <c r="B56" s="13">
@@ -2714,18 +2694,18 @@
         <v>243</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="13">
         <v>0.1</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="23" t="s">
         <v>234</v>
       </c>
       <c r="B57" s="13">
@@ -2735,18 +2715,18 @@
         <v>243</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="13">
         <v>0.15</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="13">
         <v>0.15</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="23" t="s">
         <v>235</v>
       </c>
       <c r="B58" s="13">
@@ -2756,18 +2736,18 @@
         <v>243</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="13">
         <v>0.15</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="13">
         <v>0.15</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="23" t="s">
         <v>236</v>
       </c>
       <c r="B59" s="13">
@@ -2777,18 +2757,18 @@
         <v>243</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="13">
         <v>0.15</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="27"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="13">
         <v>0.15</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B60" s="13">
@@ -2798,18 +2778,18 @@
         <v>243</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="27"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="13">
         <v>0.15</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="H60" s="27"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="13">
         <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="23" t="s">
         <v>238</v>
       </c>
       <c r="B61" s="3">
@@ -2819,18 +2799,18 @@
         <v>243</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="27"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="3">
         <v>0.1</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="27"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="13">
@@ -2840,18 +2820,18 @@
         <v>24</v>
       </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="27"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="13">
         <v>90</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="27"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="13">
@@ -2861,18 +2841,18 @@
         <v>24</v>
       </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="27"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="13">
         <v>75</v>
       </c>
       <c r="G63" s="14"/>
-      <c r="H63" s="27"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="13">
@@ -2882,18 +2862,18 @@
         <v>25</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="13">
         <v>75</v>
       </c>
       <c r="G64" s="14"/>
-      <c r="H64" s="27"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="13">
@@ -2903,18 +2883,18 @@
         <v>24</v>
       </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="13">
         <v>38</v>
       </c>
       <c r="G65" s="14"/>
-      <c r="H65" s="27"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="13">
@@ -2924,18 +2904,18 @@
         <v>24</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="13">
         <v>2</v>
       </c>
       <c r="G66" s="14"/>
-      <c r="H66" s="27"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="13">
@@ -2945,18 +2925,18 @@
         <v>24</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="13">
         <v>30</v>
       </c>
       <c r="G67" s="14"/>
-      <c r="H67" s="31"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="13">
@@ -2966,18 +2946,18 @@
         <v>24</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="E68" s="31"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="13">
         <v>38</v>
       </c>
       <c r="G68" s="15"/>
-      <c r="H68" s="31"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="13">
@@ -2987,18 +2967,18 @@
         <v>24</v>
       </c>
       <c r="D69" s="15"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="13">
         <v>2.5</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="H69" s="31"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="13">
@@ -3008,18 +2988,18 @@
         <v>24</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="13">
         <v>1</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="31"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="13">
@@ -3029,18 +3009,18 @@
         <v>24</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="13">
         <v>2</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="H71" s="27"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="13">
@@ -3050,18 +3030,18 @@
         <v>246</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="E72" s="27"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="13">
         <v>10</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="22"/>
       <c r="I72" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="13">
@@ -3071,18 +3051,18 @@
         <v>39</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="13">
         <v>29</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="27"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B74" s="13">
@@ -3092,18 +3072,18 @@
         <v>39</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="13">
         <v>14.5</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="27"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="13">
         <v>14.5</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="13">
@@ -3113,18 +3093,18 @@
         <v>39</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="13">
         <v>16.5</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="13">
         <v>16.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="13">
@@ -3141,7 +3121,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="13">
@@ -3158,7 +3138,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B78" s="13">
@@ -3171,19 +3151,19 @@
         <f>SUM(B79:B80)</f>
         <v>1</v>
       </c>
-      <c r="E78" s="27"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="13">
         <v>0.42</v>
       </c>
       <c r="G78" s="14"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="13">
         <v>0.42</v>
       </c>
-      <c r="J78" s="35"/>
+      <c r="J78" s="27"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B79" s="13">
@@ -3193,18 +3173,18 @@
         <v>24</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="13">
         <v>0.5</v>
       </c>
       <c r="G79" s="15"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="13">
@@ -3214,18 +3194,18 @@
         <v>24</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="13">
         <v>0.5</v>
       </c>
       <c r="G80" s="15"/>
-      <c r="H80" s="27"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="13">
@@ -3235,18 +3215,18 @@
         <v>40</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="13">
         <v>0.03</v>
       </c>
       <c r="G81" s="15"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="13">
@@ -3256,18 +3236,18 @@
         <v>40</v>
       </c>
       <c r="D82" s="15"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="13">
         <v>0.97</v>
       </c>
       <c r="G82" s="15"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="13">
@@ -3277,18 +3257,18 @@
         <v>40</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="13">
         <v>0.03</v>
       </c>
       <c r="G83" s="15"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B84" s="13">
@@ -3298,18 +3278,18 @@
         <v>40</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="27"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="13">
         <v>0.97</v>
       </c>
       <c r="G84" s="15"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B85" s="13">
@@ -3319,18 +3299,18 @@
         <v>40</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="13">
         <v>0.03</v>
       </c>
       <c r="G85" s="15"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="22"/>
       <c r="I85" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B86" s="13">
@@ -3340,18 +3320,18 @@
         <v>40</v>
       </c>
       <c r="D86" s="15"/>
-      <c r="E86" s="27"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="13">
         <v>0.97</v>
       </c>
       <c r="G86" s="15"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="13">
@@ -3361,18 +3341,18 @@
         <v>40</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="E87" s="27"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="13">
         <v>0.03</v>
       </c>
       <c r="G87" s="15"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="22"/>
       <c r="I87" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="13">
@@ -3382,18 +3362,18 @@
         <v>40</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="27"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="13">
         <v>0.97</v>
       </c>
       <c r="G88" s="15"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B89" s="13">
@@ -3403,18 +3383,18 @@
         <v>40</v>
       </c>
       <c r="D89" s="15"/>
-      <c r="E89" s="27"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="13">
         <v>0.03</v>
       </c>
       <c r="G89" s="15"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B90" s="13">
@@ -3424,18 +3404,18 @@
         <v>40</v>
       </c>
       <c r="D90" s="15"/>
-      <c r="E90" s="27"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="13">
         <v>0.97</v>
       </c>
       <c r="G90" s="15"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="22"/>
       <c r="I90" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="13">
@@ -3445,18 +3425,18 @@
         <v>40</v>
       </c>
       <c r="D91" s="15"/>
-      <c r="E91" s="27"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="13">
         <v>0.03</v>
       </c>
       <c r="G91" s="15"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B92" s="13">
@@ -3466,18 +3446,18 @@
         <v>40</v>
       </c>
       <c r="D92" s="15"/>
-      <c r="E92" s="27"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="13">
         <v>0.97</v>
       </c>
       <c r="G92" s="15"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B93" s="13">
@@ -3487,18 +3467,18 @@
         <v>40</v>
       </c>
       <c r="D93" s="15"/>
-      <c r="E93" s="27"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="13">
         <v>0.03</v>
       </c>
       <c r="G93" s="15"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B94" s="13">
@@ -3508,18 +3488,18 @@
         <v>40</v>
       </c>
       <c r="D94" s="15"/>
-      <c r="E94" s="27"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="13">
         <v>0.97</v>
       </c>
       <c r="G94" s="15"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B95" s="13">
@@ -3529,18 +3509,18 @@
         <v>67</v>
       </c>
       <c r="D95" s="15"/>
-      <c r="E95" s="27"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="13">
         <v>0.03</v>
       </c>
       <c r="G95" s="15"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="13">
         <v>0.03</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B96" s="13">
@@ -3550,18 +3530,18 @@
         <v>67</v>
       </c>
       <c r="D96" s="15"/>
-      <c r="E96" s="27"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="13">
         <v>0.97</v>
       </c>
       <c r="G96" s="15"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="13">
         <v>0.97</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B97" s="13">
@@ -3571,18 +3551,18 @@
         <v>24</v>
       </c>
       <c r="D97" s="15"/>
-      <c r="E97" s="27"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="13">
         <v>0.23</v>
       </c>
       <c r="G97" s="15"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="13">
         <v>0.23</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="13">
@@ -3592,18 +3572,18 @@
         <v>24</v>
       </c>
       <c r="D98" s="15"/>
-      <c r="E98" s="27"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="13">
         <v>0.56000000000000005</v>
       </c>
       <c r="G98" s="15"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="13">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B99" s="13">
@@ -3613,14 +3593,14 @@
         <v>240</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F99" s="13">
         <v>0.5</v>
       </c>
       <c r="G99" s="15"/>
-      <c r="H99" s="27" t="s">
+      <c r="H99" s="22" t="s">
         <v>241</v>
       </c>
       <c r="I99" s="13">
@@ -3628,7 +3608,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B100" s="13">
@@ -3638,18 +3618,18 @@
         <v>24</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="27"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="13">
         <v>0.99999850000000001</v>
       </c>
       <c r="G100" s="15"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="22"/>
       <c r="I100" s="13">
         <v>0.99999850000000001</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B101" s="13">
@@ -3659,18 +3639,18 @@
         <v>24</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="27"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="13">
         <v>0.98</v>
       </c>
       <c r="G101" s="15"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="13">
         <v>0.98</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B102" s="13">
@@ -3689,7 +3669,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B103" s="13">
@@ -3706,7 +3686,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="28" t="s">
         <v>239</v>
       </c>
       <c r="B104" s="3">
@@ -4643,30 +4623,30 @@
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="3">
         <v>0.08</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="3">
         <v>0.08</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
@@ -5615,7 +5595,7 @@
       <c r="B1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5629,10 +5609,10 @@
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="19">
         <v>30.841999999999999</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
@@ -5640,9 +5620,9 @@
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19">
         <f>SUM(D4:D57)</f>
         <v>30.989000000000001</v>
       </c>
@@ -5655,10 +5635,10 @@
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="19">
         <v>21.3</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <f>B4/B$2*100</f>
         <v>69.061669152454456</v>
       </c>
@@ -5672,7 +5652,7 @@
       <c r="B5" s="3">
         <v>21.3</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="3">
         <f>B5</f>
         <v>21.3</v>
@@ -5689,7 +5669,7 @@
       <c r="B6" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <f>B6/B$17*100</f>
         <v>43.927500525220118</v>
       </c>
@@ -5703,7 +5683,7 @@
       <c r="B7" s="3">
         <v>6.92</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <f t="shared" ref="C7:C16" si="0">B7/B$17*100</f>
         <v>33.041119960274266</v>
       </c>
@@ -5717,7 +5697,7 @@
       <c r="B8" s="3">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>4.3115796711167143</v>
       </c>
@@ -5731,7 +5711,7 @@
       <c r="B9" s="3">
         <v>1.08</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>5.1567065833954064</v>
       </c>
@@ -5745,7 +5725,7 @@
       <c r="B10" s="3">
         <v>0.64300000000000002</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>3.0701503084474497</v>
       </c>
@@ -5759,7 +5739,7 @@
       <c r="B11" s="3">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>1.5517867033365804</v>
       </c>
@@ -5773,7 +5753,7 @@
       <c r="B12" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>0.95017093527378305</v>
       </c>
@@ -5787,7 +5767,7 @@
       <c r="B13" s="3">
         <v>1.43</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>6.8278614946809535</v>
       </c>
@@ -5801,7 +5781,7 @@
       <c r="B14" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>0.7066597910578889</v>
       </c>
@@ -5815,7 +5795,7 @@
       <c r="B15" s="3">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>0.17952978475524745</v>
       </c>
@@ -5829,7 +5809,7 @@
       <c r="B16" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>0.27693424244160514</v>
       </c>
@@ -5844,13 +5824,13 @@
         <f>SUM(B6:B16)</f>
         <v>20.943599999999996</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
@@ -5858,10 +5838,10 @@
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="19">
         <v>12.273</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="21">
         <f>B19/B$2*100</f>
         <v>39.793139225731146</v>
       </c>
@@ -5875,7 +5855,7 @@
       <c r="B20" s="3">
         <v>4.25</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <f>B20</f>
         <v>4.25</v>
@@ -5892,7 +5872,7 @@
       <c r="B21" s="3">
         <v>3.32</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
         <f>B21/B$27*100</f>
         <v>41.063698206555344</v>
       </c>
@@ -5906,7 +5886,7 @@
       <c r="B22" s="3">
         <v>1.84</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="18">
         <f t="shared" ref="C22:C26" si="1">B22/B$27*100</f>
         <v>22.758194186765614</v>
       </c>
@@ -5920,7 +5900,7 @@
       <c r="B23" s="3">
         <v>1.32</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="18">
         <f t="shared" si="1"/>
         <v>16.326530612244898</v>
       </c>
@@ -5934,7 +5914,7 @@
       <c r="B24" s="3">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="18">
         <f t="shared" si="1"/>
         <v>9.783549783549784</v>
       </c>
@@ -5948,7 +5928,7 @@
       <c r="B25" s="3">
         <v>0.26300000000000001</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="18">
         <f t="shared" si="1"/>
         <v>3.2529375386518242</v>
       </c>
@@ -5962,7 +5942,7 @@
       <c r="B26" s="3">
         <v>0.55100000000000005</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="18">
         <f t="shared" si="1"/>
         <v>6.8150896722325287</v>
       </c>
@@ -5977,13 +5957,13 @@
         <f>SUM(B21:B26)</f>
         <v>8.0850000000000009</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
@@ -5991,10 +5971,10 @@
       <c r="A29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="19">
         <v>1.37</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="21">
         <f>B29/B$2*100</f>
         <v>4.4419946825757091</v>
       </c>
@@ -6008,7 +5988,7 @@
       <c r="B30" s="3">
         <v>1.37</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="3">
         <f>B30</f>
         <v>1.37</v>
@@ -6025,7 +6005,7 @@
       <c r="B31" s="3">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="18">
         <f>B31/B$34*100</f>
         <v>77.529566360052556</v>
       </c>
@@ -6039,7 +6019,7 @@
       <c r="B32" s="3">
         <v>1.89E-2</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="18">
         <f>B32/B$34*100</f>
         <v>2.759526938239159</v>
       </c>
@@ -6053,7 +6033,7 @@
       <c r="B33" s="3">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="18">
         <f>B33/B$34*100</f>
         <v>19.710906701708279</v>
       </c>
@@ -6068,13 +6048,13 @@
         <f>SUM(B31:B33)</f>
         <v>0.68490000000000006</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
     </row>
@@ -6082,10 +6062,10 @@
       <c r="A36" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="19">
         <v>0.48199999999999998</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="21">
         <f>B36/B$2*100</f>
         <v>1.5628039686142274</v>
       </c>
@@ -6099,7 +6079,7 @@
       <c r="B37" s="3">
         <v>0.48199999999999998</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="3">
         <f>B37</f>
         <v>0.48199999999999998</v>
@@ -6116,7 +6096,7 @@
       <c r="B38" s="3">
         <v>0.39</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="18">
         <f>B38/B$41*100</f>
         <v>80.929653455073662</v>
       </c>
@@ -6130,7 +6110,7 @@
       <c r="B39" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="18">
         <f>B39/B$41*100</f>
         <v>15.023863872172649</v>
       </c>
@@ -6144,7 +6124,7 @@
       <c r="B40" s="3">
         <v>1.95E-2</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="18">
         <f>B40/B$41*100</f>
         <v>4.0464826727536831</v>
       </c>
@@ -6159,13 +6139,13 @@
         <f>SUM(B38:B40)</f>
         <v>0.48190000000000005</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
     </row>
@@ -6173,11 +6153,11 @@
       <c r="A43" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="19">
         <f>B13+B44</f>
         <v>2.1789999999999998</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="21">
         <f>B43/B2*100</f>
         <v>7.0650411776149404</v>
       </c>
@@ -6191,7 +6171,7 @@
       <c r="B44" s="3">
         <v>0.749</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="18">
         <f>B44/B45*100</f>
         <v>34.302724982825737</v>
       </c>
@@ -6211,13 +6191,13 @@
       <c r="B45" s="3">
         <v>2.1835</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
     </row>
@@ -6229,7 +6209,7 @@
         <f>B48+B9+B10+B25+B32+B40</f>
         <v>2.4523999999999995</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
     </row>
@@ -6240,7 +6220,7 @@
       <c r="B48" s="3">
         <v>0.42799999999999999</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="3">
         <f>B48</f>
         <v>0.42799999999999999</v>
@@ -6251,8 +6231,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
     </row>
@@ -6260,11 +6240,11 @@
       <c r="A50" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="19">
         <f>B51</f>
         <v>2.41</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
     </row>
@@ -6275,7 +6255,7 @@
       <c r="B51" s="3">
         <v>2.41</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="3">
         <f>B51</f>
         <v>2.41</v>
@@ -6286,8 +6266,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="25"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
     </row>
@@ -6295,10 +6275,10 @@
       <c r="A53" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="19">
         <v>0.90539999999999998</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
     </row>
@@ -6309,13 +6289,13 @@
       <c r="B54" s="1">
         <v>0.86</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="3"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="25"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="3"/>
       <c r="E55" s="1"/>
     </row>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B558289-B1DB-4023-873C-F5671512CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D8995-9B24-4B4D-AB4F-0F6D59667212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="263">
   <si>
     <t>Paper</t>
   </si>
@@ -728,9 +728,6 @@
     <t>PulpMillToSpecialtyPulpProducts</t>
   </si>
   <si>
-    <t>PelletMillToPellets</t>
-  </si>
-  <si>
     <t>LogExportToPowerFacility</t>
   </si>
   <si>
@@ -810,6 +807,27 @@
   </si>
   <si>
     <t>GFS22 QA</t>
+  </si>
+  <si>
+    <t>PelletMillToDomRNG</t>
+  </si>
+  <si>
+    <t>PelletMillToDomGrid</t>
+  </si>
+  <si>
+    <t>PelletMillToPelletExport</t>
+  </si>
+  <si>
+    <t>BurnUneconomic</t>
+  </si>
+  <si>
+    <t>LeaveUneconomicStanding</t>
+  </si>
+  <si>
+    <t>UseUnecomicForPellets</t>
+  </si>
+  <si>
+    <t>Energy Production Pellets</t>
   </si>
 </sst>
 </file>
@@ -1319,63 +1337,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>221</v>
       </c>
@@ -1409,8 +1440,24 @@
         <f>SUM(I2:I14)</f>
         <v>0.99992536999999992</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="3">
+        <f>F2</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M2" s="3">
+        <f>F2</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <f>F2</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <f>F2</f>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>213</v>
       </c>
@@ -1430,8 +1477,24 @@
       <c r="I3" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L66" si="0">F3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M66" si="1">F3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N66" si="2">F3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O66" si="3">F3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>222</v>
       </c>
@@ -1451,8 +1514,24 @@
       <c r="I4" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>220</v>
       </c>
@@ -1472,8 +1551,24 @@
       <c r="I5" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>212</v>
       </c>
@@ -1496,8 +1591,24 @@
         <f>0.052+0.031</f>
         <v>8.299999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>8.299999999999999E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.299999999999999E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>8.299999999999999E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="3"/>
+        <v>8.299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>223</v>
       </c>
@@ -1517,8 +1628,24 @@
       <c r="I7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>204</v>
       </c>
@@ -1541,8 +1668,24 @@
         <f>0.439*0.2755+0.005</f>
         <v>0.12594450000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12594450000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12594450000000001</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12594450000000001</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12594450000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>205</v>
       </c>
@@ -1565,8 +1708,24 @@
         <f>0.439*0.01857</f>
         <v>8.1522299999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1522299999999999E-3</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>8.1522299999999999E-3</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1522299999999999E-3</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
+        <v>8.1522299999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>206</v>
       </c>
@@ -1589,8 +1748,24 @@
         <f>0.439*0.0774</f>
         <v>3.3978599999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3978599999999998E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3978599999999998E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3978599999999998E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3978599999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>207</v>
       </c>
@@ -1613,8 +1788,24 @@
         <f>0.439*0.1269</f>
         <v>5.5709100000000004E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5709100000000004E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5709100000000004E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5709100000000004E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5709100000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>208</v>
       </c>
@@ -1637,8 +1828,24 @@
         <f>0.439*0.0928</f>
         <v>4.0739199999999996E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0739199999999996E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0739199999999996E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0739199999999996E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0739199999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>209</v>
       </c>
@@ -1661,8 +1868,24 @@
         <f>0.439*0.26006</f>
         <v>0.11416634000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11416634000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11416634000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11416634000000001</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11416634000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>210</v>
       </c>
@@ -1685,8 +1908,24 @@
         <f>0.439*0.1486</f>
         <v>6.5235399999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5235399999999999E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5235399999999999E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5235399999999999E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="3"/>
+        <v>6.5235399999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>224</v>
       </c>
@@ -1720,8 +1959,24 @@
         <f>SUM(I15:I19)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>225</v>
       </c>
@@ -1745,8 +2000,24 @@
       <c r="I16" s="13">
         <v>0.63800000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>226</v>
       </c>
@@ -1769,8 +2040,24 @@
         <f>0.033+0.068</f>
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>227</v>
       </c>
@@ -1778,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="22"/>
@@ -1790,8 +2077,24 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>228</v>
       </c>
@@ -1799,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="22" t="s">
@@ -1815,8 +2118,24 @@
       <c r="I19" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>218</v>
       </c>
@@ -1846,8 +2165,24 @@
         <f>SUM(I20:I28)</f>
         <v>1.0004400000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>215</v>
       </c>
@@ -1867,8 +2202,24 @@
       <c r="I21" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>102</v>
       </c>
@@ -1891,8 +2242,24 @@
         <f>0.775*0.28</f>
         <v>0.21700000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>103</v>
       </c>
@@ -1915,8 +2282,24 @@
         <f>0.775*0.014</f>
         <v>1.085E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.085E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.085E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.085E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="3"/>
+        <v>1.085E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>104</v>
       </c>
@@ -1939,8 +2322,24 @@
         <f>0.775*0.08</f>
         <v>6.2000000000000006E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="3"/>
+        <v>6.2000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>105</v>
       </c>
@@ -1963,8 +2362,24 @@
         <f>0.775*0.13</f>
         <v>0.10075000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10075000000000001</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10075000000000001</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10075000000000001</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10075000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>106</v>
       </c>
@@ -1987,8 +2402,24 @@
         <f>0.775*0.097</f>
         <v>7.5175000000000006E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5175000000000006E-2</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5175000000000006E-2</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5175000000000006E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5175000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>107</v>
       </c>
@@ -2011,8 +2442,24 @@
         <f>0.775*0.26</f>
         <v>0.20150000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>108</v>
       </c>
@@ -2035,8 +2482,24 @@
         <f>0.775*0.1486</f>
         <v>0.11516500000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11516500000000002</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11516500000000002</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11516500000000002</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11516500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>219</v>
       </c>
@@ -2066,8 +2529,24 @@
         <f>SUM(I29:I37)</f>
         <v>0.99986247000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.151</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.151</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.151</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>216</v>
       </c>
@@ -2087,8 +2566,24 @@
       <c r="I30" s="13">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>110</v>
       </c>
@@ -2111,8 +2606,24 @@
         <f>0.809*0.2755</f>
         <v>0.22287950000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22287950000000004</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22287950000000004</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22287950000000004</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22287950000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>111</v>
       </c>
@@ -2135,8 +2646,24 @@
         <f>0.809*0.01857</f>
         <v>1.5023130000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5023130000000001E-2</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5023130000000001E-2</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5023130000000001E-2</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5023130000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>112</v>
       </c>
@@ -2159,8 +2686,24 @@
         <f>0.809*0.0774</f>
         <v>6.2616599999999994E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2616599999999994E-2</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2616599999999994E-2</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2616599999999994E-2</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="3"/>
+        <v>6.2616599999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>113</v>
       </c>
@@ -2183,8 +2726,24 @@
         <f>0.809*0.1269</f>
         <v>0.10266210000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10266210000000002</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10266210000000002</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10266210000000002</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10266210000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
@@ -2207,8 +2766,24 @@
         <f>0.809*0.0928</f>
         <v>7.5075199999999995E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L35" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5075199999999995E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5075199999999995E-2</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5075199999999995E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5075199999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>115</v>
       </c>
@@ -2231,8 +2806,24 @@
         <f>0.809*0.26006</f>
         <v>0.21038854000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21038854000000001</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21038854000000001</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21038854000000001</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21038854000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>116</v>
       </c>
@@ -2255,8 +2846,24 @@
         <f>0.809*0.1486</f>
         <v>0.12021740000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12021740000000002</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12021740000000002</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12021740000000002</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12021740000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>117</v>
       </c>
@@ -2289,8 +2896,24 @@
         <f>SUM(I38:I44)</f>
         <v>0.99983</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>118</v>
       </c>
@@ -2313,8 +2936,24 @@
         <f>1*0.01857</f>
         <v>1.857E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.857E-2</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.857E-2</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.857E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="3"/>
+        <v>1.857E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>119</v>
       </c>
@@ -2337,8 +2976,24 @@
         <f>1*0.0774</f>
         <v>7.7399999999999997E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L40" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="3"/>
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>120</v>
       </c>
@@ -2361,8 +3016,24 @@
         <f>1*0.1269</f>
         <v>0.12690000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>121</v>
       </c>
@@ -2385,8 +3056,24 @@
         <f>1*0.0928</f>
         <v>9.2799999999999994E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="2"/>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>122</v>
       </c>
@@ -2409,8 +3096,24 @@
         <f>1*0.26006</f>
         <v>0.26006000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26006000000000001</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26006000000000001</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26006000000000001</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.26006000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>123</v>
       </c>
@@ -2433,41 +3136,76 @@
         <f>1*0.1486</f>
         <v>0.14860000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14860000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B45" s="13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D45" s="14">
-        <f>SUM(B45:B45)</f>
+        <f>SUM(B45:B47)</f>
         <v>1</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="G45" s="14">
+        <f>SUM(F45:F47)</f>
         <v>1</v>
       </c>
-      <c r="G45" s="14"/>
       <c r="H45" s="22"/>
       <c r="I45" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="J45" s="27">
+        <f>SUM(I45:I47)</f>
         <v>1</v>
       </c>
-      <c r="J45" s="27">
-        <f>SUM(I45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
-        <v>141</v>
+      <c r="L45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="B46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>244</v>
@@ -2475,20 +3213,37 @@
       <c r="D46" s="14"/>
       <c r="E46" s="22"/>
       <c r="F46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="22"/>
       <c r="I46" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="27"/>
+      <c r="L46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="B47" s="13">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>244</v>
@@ -2496,265 +3251,458 @@
       <c r="D47" s="14"/>
       <c r="E47" s="22"/>
       <c r="F47" s="13">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="22"/>
       <c r="I47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>143</v>
+        <v>0.05</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="L47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="B48" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="22"/>
       <c r="F48" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="22"/>
       <c r="I48" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L48" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" s="13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="22"/>
       <c r="F49" s="13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="22"/>
       <c r="I49" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
-        <v>132</v>
+      <c r="L49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="B50" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="14">
-        <f>SUM(B50:B52)</f>
-        <v>0</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D50" s="14"/>
       <c r="E50" s="22"/>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="22"/>
       <c r="I50" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
-        <v>133</v>
+      <c r="L50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="B51" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" s="15"/>
+        <v>243</v>
+      </c>
+      <c r="D51" s="14"/>
       <c r="E51" s="22"/>
       <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="14"/>
       <c r="H51" s="22"/>
       <c r="I51" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B52" s="13">
         <v>0</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="15"/>
+        <v>243</v>
+      </c>
+      <c r="D52" s="14">
+        <f>SUM(B52:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="F52" s="13">
         <v>0</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>230</v>
+      <c r="L52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="B53" s="13">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="14">
-        <f>SUM(B53:B61)</f>
-        <v>1</v>
-      </c>
+      <c r="D53" s="15"/>
       <c r="E53" s="22"/>
       <c r="F53" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G53" s="14">
-        <f>SUM(F53:F61)</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G53" s="15"/>
       <c r="H53" s="22"/>
       <c r="I53" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="J53" s="27">
-        <f>SUM(I53:I61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>231</v>
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="B54" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="22"/>
+      <c r="D54" s="15"/>
       <c r="F54" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="15"/>
       <c r="I54" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B55" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="14"/>
+        <v>242</v>
+      </c>
+      <c r="D55" s="14">
+        <f>SUM(B55:B63)</f>
+        <v>1</v>
+      </c>
       <c r="E55" s="22"/>
       <c r="F55" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G55" s="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="G55" s="14">
+        <f>SUM(F55:F63)</f>
+        <v>1</v>
+      </c>
       <c r="H55" s="22"/>
       <c r="I55" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="J55" s="27">
+        <f>SUM(I55:I63)</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" s="13">
-        <v>0.1</v>
-      </c>
       <c r="C56" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="22"/>
       <c r="F56" s="13">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="22"/>
       <c r="I56" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="13">
-        <v>0.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="22"/>
       <c r="F57" s="13">
-        <v>0.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="22"/>
       <c r="I57" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="22"/>
       <c r="F58" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="22"/>
       <c r="I58" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B59" s="13">
         <v>0.15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="22"/>
@@ -2766,16 +3714,32 @@
       <c r="I59" s="13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B60" s="13">
         <v>0.15</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="22"/>
@@ -2787,97 +3751,177 @@
       <c r="I60" s="13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.1</v>
+        <v>235</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0.15</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="3">
-        <v>0.1</v>
+      <c r="F61" s="13">
+        <v>0.15</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="22"/>
-      <c r="I61" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>16</v>
+      <c r="I61" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>236</v>
       </c>
       <c r="B62" s="13">
-        <v>90</v>
+        <v>0.15</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="22"/>
       <c r="F62" s="13">
-        <v>90</v>
+        <v>0.15</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="22"/>
       <c r="I62" s="13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="13">
-        <v>75</v>
+        <v>0.15</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.1</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="13">
-        <v>75</v>
+      <c r="F63" s="3">
+        <v>0.1</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B64" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="22"/>
       <c r="F64" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="22"/>
       <c r="I64" s="13">
+        <v>90</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="13">
         <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="13">
-        <v>38</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>24</v>
@@ -2885,104 +3929,184 @@
       <c r="D65" s="14"/>
       <c r="E65" s="22"/>
       <c r="F65" s="13">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="22"/>
       <c r="I65" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B66" s="13">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="22"/>
       <c r="F66" s="13">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="22"/>
       <c r="I66" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="25"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G67" s="14"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" ref="L67:L106" si="4">F67</f>
+        <v>38</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" ref="M67:M106" si="5">F67</f>
+        <v>38</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" ref="N67:N106" si="6">F67</f>
+        <v>38</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" ref="O67:O106" si="7">F67</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B68" s="13">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="25"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="13">
-        <v>38</v>
-      </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B69" s="13">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="25"/>
       <c r="F69" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G69" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="G69" s="14"/>
       <c r="H69" s="25"/>
       <c r="I69" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B70" s="13">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>24</v>
@@ -2990,104 +4114,184 @@
       <c r="D70" s="15"/>
       <c r="E70" s="25"/>
       <c r="F70" s="13">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="25"/>
       <c r="I70" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="22"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="13">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="13">
         <v>2</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="13">
-        <v>10</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="13">
-        <v>10</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="13">
-        <v>29</v>
-      </c>
       <c r="C73" s="12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="22"/>
       <c r="F73" s="13">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="22"/>
       <c r="I73" s="13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N73" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B74" s="13">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
       <c r="F74" s="13">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="22"/>
       <c r="I74" s="13">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="13">
         <v>29</v>
-      </c>
-      <c r="B75" s="13">
-        <v>16.5</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>39</v>
@@ -3095,160 +4299,288 @@
       <c r="D75" s="15"/>
       <c r="E75" s="22"/>
       <c r="F75" s="13">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="22"/>
       <c r="I75" s="13">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="N75" s="3">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B76" s="13">
-        <v>8.25</v>
+        <v>14.5</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="7"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="13">
         <v>8.25</v>
       </c>
-      <c r="I76" s="13">
+      <c r="C78" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="13">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="I78" s="13">
+        <v>8.25</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="4"/>
+        <v>8.25</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="5"/>
+        <v>8.25</v>
+      </c>
+      <c r="N78" s="3">
+        <f t="shared" si="6"/>
+        <v>8.25</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="7"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B79" s="13">
         <v>5</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="13">
-        <v>5</v>
-      </c>
-      <c r="I77" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="14">
-        <f>SUM(B79:B80)</f>
-        <v>1</v>
-      </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="J78" s="27"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="13">
-        <v>0.5</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="22"/>
       <c r="F79" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="22"/>
+        <v>5</v>
+      </c>
       <c r="I79" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B80" s="13">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="14">
+        <f>SUM(B81:B82)</f>
+        <v>1</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G80" s="15"/>
+        <v>0.42</v>
+      </c>
+      <c r="G80" s="14"/>
       <c r="H80" s="22"/>
       <c r="I80" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="J80" s="27"/>
+      <c r="L80" s="3">
+        <f t="shared" si="4"/>
+        <v>0.42</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+      <c r="N80" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="13">
-        <v>0.03</v>
-      </c>
       <c r="C81" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="22"/>
       <c r="F81" s="13">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="22"/>
       <c r="I81" s="13">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
-        <v>44</v>
+        <v>0.5</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N81" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B82" s="13">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="22"/>
       <c r="F82" s="13">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="22"/>
       <c r="I82" s="13">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N82" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B83" s="13">
         <v>0.03</v>
@@ -3266,10 +4598,26 @@
       <c r="I83" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
-        <v>45</v>
+      <c r="L83" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B84" s="13">
         <v>0.97</v>
@@ -3287,10 +4635,26 @@
       <c r="I84" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
-        <v>34</v>
+      <c r="L84" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N84" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B85" s="13">
         <v>0.03</v>
@@ -3308,10 +4672,26 @@
       <c r="I85" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
-        <v>46</v>
+      <c r="L85" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="B86" s="13">
         <v>0.97</v>
@@ -3329,10 +4709,26 @@
       <c r="I86" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>35</v>
+      <c r="L86" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N86" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B87" s="13">
         <v>0.03</v>
@@ -3350,10 +4746,26 @@
       <c r="I87" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
-        <v>47</v>
+      <c r="L87" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N87" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B88" s="13">
         <v>0.97</v>
@@ -3371,10 +4783,26 @@
       <c r="I88" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
-        <v>36</v>
+      <c r="L88" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N88" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B89" s="13">
         <v>0.03</v>
@@ -3392,10 +4820,26 @@
       <c r="I89" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
-        <v>48</v>
+      <c r="L89" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N89" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="B90" s="13">
         <v>0.97</v>
@@ -3413,10 +4857,26 @@
       <c r="I90" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
-        <v>37</v>
+      <c r="L90" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N90" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="B91" s="13">
         <v>0.03</v>
@@ -3434,10 +4894,26 @@
       <c r="I91" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
-        <v>49</v>
+      <c r="L91" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N91" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B92" s="13">
         <v>0.97</v>
@@ -3455,10 +4931,26 @@
       <c r="I92" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
-        <v>38</v>
+      <c r="L92" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N92" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B93" s="13">
         <v>0.03</v>
@@ -3476,10 +4968,26 @@
       <c r="I93" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
-        <v>50</v>
+      <c r="L93" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N93" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="B94" s="13">
         <v>0.97</v>
@@ -3497,16 +5005,32 @@
       <c r="I94" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="23" t="s">
-        <v>65</v>
+      <c r="L94" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B95" s="13">
         <v>0.03</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
@@ -3518,16 +5042,32 @@
       <c r="I95" s="13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
-        <v>66</v>
+      <c r="L95" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N95" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B96" s="13">
         <v>0.97</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
@@ -3539,80 +5079,140 @@
       <c r="I96" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
-        <v>51</v>
+      <c r="L96" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N96" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="B97" s="13">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="22"/>
       <c r="F97" s="13">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="22"/>
       <c r="I97" s="13">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="s">
-        <v>52</v>
+        <v>0.03</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="M97" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N97" s="3">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B98" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="22"/>
       <c r="F98" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="22"/>
       <c r="I98" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="N98" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="N99" s="3">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="13">
         <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F99" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="I99" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="13">
-        <v>0.99999850000000001</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>24</v>
@@ -3620,85 +5220,243 @@
       <c r="D100" s="15"/>
       <c r="E100" s="22"/>
       <c r="F100" s="13">
-        <v>0.99999850000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="22"/>
       <c r="I100" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L100" s="3">
+        <f t="shared" si="4"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M100" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N100" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="7"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L101" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M101" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="13">
         <v>0.99999850000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B101" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="13">
-        <v>0.85</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="15"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="13">
-        <v>0.85</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="G102" s="15"/>
+      <c r="H102" s="22"/>
       <c r="I102" s="13">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="L102" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="M102" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="N102" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="7"/>
+        <v>0.99999850000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="13">
-        <v>0.22</v>
+        <v>0.98</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="15"/>
+      <c r="F104" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="I104" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="13">
         <v>0.22</v>
       </c>
-      <c r="I103" s="13">
+      <c r="C105" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="13">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" s="3">
+      <c r="I105" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="N105" s="3">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" s="3">
         <v>0.02</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="C106" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F106" s="3">
         <v>0.02</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I106" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="M106" s="3">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N106" s="3">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D8995-9B24-4B4D-AB4F-0F6D59667212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0DCE14-7448-41F0-A34C-BA329F492A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,16 +818,16 @@
     <t>PelletMillToPelletExport</t>
   </si>
   <si>
-    <t>BurnUneconomic</t>
-  </si>
-  <si>
-    <t>LeaveUneconomicStanding</t>
-  </si>
-  <si>
-    <t>UseUnecomicForPellets</t>
-  </si>
-  <si>
     <t>Energy Production Pellets</t>
+  </si>
+  <si>
+    <t>Burn Uneconomic</t>
+  </si>
+  <si>
+    <t>Leave Uneconomic Standing</t>
+  </si>
+  <si>
+    <t>Sawlogs and Pellets</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -997,31 +997,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,29 +1372,29 @@
     <col min="12" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="36" t="s">
         <v>253</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -1390,20 +1403,20 @@
       <c r="J1" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="41" t="s">
         <v>259</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0DCE14-7448-41F0-A34C-BA329F492A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13817782-E018-488F-92CE-F8D16099BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Default" sheetId="5" r:id="rId1"/>
+    <sheet name="Main" sheetId="5" r:id="rId1"/>
     <sheet name="PulpCalculations" sheetId="6" r:id="rId2"/>
     <sheet name="Dymond12_UpdateFrozen" sheetId="7" r:id="rId3"/>
     <sheet name="Ghafghazi16" sheetId="8" r:id="rId4"/>
@@ -883,7 +883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +908,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -921,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1033,7 +1045,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1353,7 +1371,7 @@
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,10 +1427,10 @@
       <c r="L1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>262</v>
       </c>
       <c r="O1" s="41" t="s">

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13817782-E018-488F-92CE-F8D16099BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE1E29-F075-40BB-872C-4DD88C178CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="256">
   <si>
     <t>Paper</t>
   </si>
@@ -653,36 +653,9 @@
     <t>Imports to pulpmill</t>
   </si>
   <si>
-    <t>SawMillToSFH</t>
-  </si>
-  <si>
-    <t>SawMillToMFH</t>
-  </si>
-  <si>
-    <t>SawMillToCom</t>
-  </si>
-  <si>
-    <t>SawMillToFurn</t>
-  </si>
-  <si>
-    <t>SawMillToShip</t>
-  </si>
-  <si>
-    <t>SawMillToRepairs</t>
-  </si>
-  <si>
-    <t>SawMillToOther</t>
-  </si>
-  <si>
     <t>Ghafghazi 2016</t>
   </si>
   <si>
-    <t>SawMillToIPP</t>
-  </si>
-  <si>
-    <t>SawMillToMDFMill</t>
-  </si>
-  <si>
     <t>Surplus sent to pulp</t>
   </si>
   <si>
@@ -701,18 +674,6 @@
     <t>OSBMillToPowerFacility</t>
   </si>
   <si>
-    <t>SawMillToPowerFacility</t>
-  </si>
-  <si>
-    <t>SawMillToPulpMill</t>
-  </si>
-  <si>
-    <t>SawMillToPelletMill</t>
-  </si>
-  <si>
-    <t>SawMillToLogExport</t>
-  </si>
-  <si>
     <t>PulpMillToPaper</t>
   </si>
   <si>
@@ -828,6 +789,24 @@
   </si>
   <si>
     <t>Sawlogs and Pellets</t>
+  </si>
+  <si>
+    <t>LumberMillToPulpMill</t>
+  </si>
+  <si>
+    <t>LumberMillToMDFMill</t>
+  </si>
+  <si>
+    <t>LumberMillToPelletMill</t>
+  </si>
+  <si>
+    <t>LumberMillToPowerFacility</t>
+  </si>
+  <si>
+    <t>LumberMillToIPP</t>
+  </si>
+  <si>
+    <t>LumberMillToLogExport</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1350,7 @@
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,64 +1374,64 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="M1" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="N1" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="O1" s="41" t="s">
         <v>246</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="B2" s="13">
         <v>0.35499999999999998</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(B2:B14)</f>
         <v>0.99992536999999992</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F2" s="13">
         <v>0.35499999999999998</v>
@@ -1462,7 +1441,7 @@
         <v>0.99992536999999992</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I2" s="13">
         <v>0.35499999999999998</v>
@@ -1490,13 +1469,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="B3" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="22"/>
@@ -1527,13 +1506,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="B4" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="22"/>
@@ -1564,13 +1543,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B5" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="22"/>
@@ -1601,14 +1580,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="B6" s="13">
         <f>0.052+0.031</f>
         <v>8.299999999999999E-2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="22"/>
@@ -1641,13 +1620,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B7" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="22"/>
@@ -1678,14 +1657,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13">
         <f>0.439*0.2755</f>
         <v>0.12094450000000001</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="22"/>
@@ -1718,14 +1697,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="B9" s="13">
         <f>0.439*0.01857</f>
         <v>8.1522299999999999E-3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="22"/>
@@ -1758,14 +1737,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="B10" s="13">
         <f>0.439*0.0774</f>
         <v>3.3978599999999998E-2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="22"/>
@@ -1798,14 +1777,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="B11" s="13">
         <f>0.439*0.1269</f>
         <v>5.5709100000000004E-2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="22"/>
@@ -1838,14 +1817,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="B12" s="13">
         <f>0.439*0.0928</f>
         <v>4.0739199999999996E-2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="22"/>
@@ -1878,14 +1857,14 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="B13" s="13">
         <f>0.439*0.26006</f>
         <v>0.11416634000000001</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="22"/>
@@ -1918,14 +1897,14 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13">
         <f>0.439*0.1486</f>
         <v>6.5235399999999999E-2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="22"/>
@@ -1958,13 +1937,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B15" s="13">
         <v>0.26100000000000001</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(B15:B18)</f>
@@ -2009,13 +1988,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B16" s="13">
         <v>0.63800000000000001</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="22" t="s">
@@ -2050,14 +2029,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B17" s="13">
         <f>0.033+0.068</f>
         <v>0.10100000000000001</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="22"/>
@@ -2090,13 +2069,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B18" s="13">
         <v>0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="22"/>
@@ -2127,13 +2106,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B19" s="13">
         <v>0</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="22" t="s">
@@ -2168,13 +2147,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B20" s="3">
         <v>0.19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D20" s="27">
         <f>SUM(B20:B28)</f>
@@ -2215,13 +2194,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B21" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="22"/>
@@ -2259,7 +2238,7 @@
         <v>0.21700000000000003</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="22"/>
@@ -2299,7 +2278,7 @@
         <v>1.085E-2</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="22"/>
@@ -2339,7 +2318,7 @@
         <v>6.2000000000000006E-2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="22"/>
@@ -2379,7 +2358,7 @@
         <v>0.10075000000000001</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="22"/>
@@ -2419,7 +2398,7 @@
         <v>7.5175000000000006E-2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="22"/>
@@ -2459,7 +2438,7 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="22"/>
@@ -2499,7 +2478,7 @@
         <v>0.11516500000000002</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="22"/>
@@ -2532,13 +2511,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B29" s="13">
         <v>0.151</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D29" s="14">
         <f>SUM(B29:B37)</f>
@@ -2579,13 +2558,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B30" s="13">
         <v>0.04</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="22"/>
@@ -2623,7 +2602,7 @@
         <v>0.22287950000000004</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="22"/>
@@ -2663,7 +2642,7 @@
         <v>1.5023130000000001E-2</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="22"/>
@@ -2703,7 +2682,7 @@
         <v>6.2616599999999994E-2</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="22"/>
@@ -2743,7 +2722,7 @@
         <v>0.10266210000000002</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="22"/>
@@ -2783,7 +2762,7 @@
         <v>7.5075199999999995E-2</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="22"/>
@@ -2823,7 +2802,7 @@
         <v>0.21038854000000001</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="22"/>
@@ -2863,7 +2842,7 @@
         <v>0.12021740000000002</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="22"/>
@@ -2903,7 +2882,7 @@
         <v>0.27550000000000002</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D38" s="14">
         <f>SUM(B38:B44)</f>
@@ -2953,7 +2932,7 @@
         <v>1.857E-2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="22"/>
@@ -2993,7 +2972,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="22"/>
@@ -3033,7 +3012,7 @@
         <v>0.12690000000000001</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="22"/>
@@ -3073,7 +3052,7 @@
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="22"/>
@@ -3113,7 +3092,7 @@
         <v>0.26006000000000001</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="22"/>
@@ -3153,7 +3132,7 @@
         <v>0.14860000000000001</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="22"/>
@@ -3186,13 +3165,13 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B45" s="13">
         <v>0.95</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D45" s="14">
         <f>SUM(B45:B47)</f>
@@ -3233,13 +3212,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B46" s="13">
         <v>0</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="22"/>
@@ -3271,13 +3250,13 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B47" s="13">
         <v>0.05</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="22"/>
@@ -3315,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="22"/>
@@ -3352,7 +3331,7 @@
         <v>0.8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="22"/>
@@ -3389,7 +3368,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="22"/>
@@ -3426,7 +3405,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="22"/>
@@ -3463,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D52" s="14">
         <f>SUM(B52:B54)</f>
@@ -3503,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="22"/>
@@ -3534,13 +3513,13 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B54" s="13">
         <v>0</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D54" s="15"/>
       <c r="F54" s="13">
@@ -3569,13 +3548,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B55" s="13">
         <v>0.15</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D55" s="14">
         <f>SUM(B55:B63)</f>
@@ -3616,13 +3595,13 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B56" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="22"/>
@@ -3653,13 +3632,13 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B57" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="22"/>
@@ -3690,13 +3669,13 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B58" s="13">
         <v>0.1</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="22"/>
@@ -3727,13 +3706,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B59" s="13">
         <v>0.15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="22"/>
@@ -3764,13 +3743,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B60" s="13">
         <v>0.15</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="22"/>
@@ -3801,13 +3780,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B61" s="13">
         <v>0.15</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="22"/>
@@ -3838,13 +3817,13 @@
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B62" s="13">
         <v>0.15</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="22"/>
@@ -3875,13 +3854,13 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B63" s="3">
         <v>0.1</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="22"/>
@@ -4288,7 +4267,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
@@ -5283,18 +5262,18 @@
         <v>0.5</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F101" s="13">
         <v>0.5</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I101" s="13">
         <v>0.5</v>
@@ -5460,13 +5439,13 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B106" s="3">
         <v>0.02</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F106" s="3">
         <v>0.02</v>

--- a/cbrunner/Parameters/Parameters_HWP.xlsx
+++ b/cbrunner/Parameters/Parameters_HWP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE1E29-F075-40BB-872C-4DD88C178CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE2562-5912-4192-9838-4D0747BBF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="257">
   <si>
     <t>Paper</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>LumberMillToLogExport</t>
+  </si>
+  <si>
+    <t>PelletMillToHydrogen</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,13 +1361,13 @@
     <col min="1" max="1" width="48.109375" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="26" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="7" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="15" width="8.88671875" style="1"/>
   </cols>
@@ -1488,19 +1491,19 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="0">F3</f>
+        <f t="shared" ref="L3:L67" si="0">F3</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M66" si="1">F3</f>
+        <f t="shared" ref="M3:M67" si="1">F3</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N66" si="2">F3</f>
+        <f t="shared" ref="N3:N67" si="2">F3</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O66" si="3">F3</f>
+        <f t="shared" ref="O3:O67" si="3">F3</f>
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -3174,7 +3177,7 @@
         <v>231</v>
       </c>
       <c r="D45" s="14">
-        <f>SUM(B45:B47)</f>
+        <f>SUM(B45:B48)</f>
         <v>1</v>
       </c>
       <c r="E45" s="22"/>
@@ -3287,48 +3290,45 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>141</v>
+      <c r="A48" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="B48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="22"/>
       <c r="F48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="22"/>
       <c r="I48" s="13">
         <v>0</v>
       </c>
-      <c r="L48" s="3">
-        <f t="shared" si="0"/>
+      <c r="J48" s="27"/>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+      <c r="O48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="13">
         <v>1</v>
-      </c>
-      <c r="M48" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N48" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="13">
-        <v>0.8</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>230</v>
@@ -3336,7 +3336,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="22"/>
       <c r="F49" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="22"/>
@@ -3345,27 +3345,27 @@
       </c>
       <c r="L49" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M49" s="3">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O49" s="3">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>230</v>
@@ -3373,7 +3373,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="22"/>
       <c r="F50" s="13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="22"/>
@@ -3382,24 +3382,24 @@
       </c>
       <c r="L50" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M50" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O50" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" s="13">
         <v>0.1</v>
@@ -3435,22 +3435,19 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>132</v>
+      <c r="A52" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="B52" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="14">
-        <f>SUM(B52:B54)</f>
-        <v>0</v>
-      </c>
+      <c r="D52" s="14"/>
       <c r="E52" s="22"/>
       <c r="F52" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="22"/>
@@ -3459,24 +3456,24 @@
       </c>
       <c r="L52" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N52" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O52" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="13">
         <v>0</v>
@@ -3484,12 +3481,15 @@
       <c r="C53" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="14">
+        <f>SUM(B53:B55)</f>
+        <v>0</v>
+      </c>
       <c r="E53" s="22"/>
       <c r="F53" s="13">
         <v>0</v>
       </c>
-      <c r="G53" s="15"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="22"/>
       <c r="I53" s="13">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B54" s="13">
         <v>0</v>
@@ -3522,10 +3522,12 @@
         <v>230</v>
       </c>
       <c r="D54" s="15"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="13">
         <v>0</v>
       </c>
       <c r="G54" s="15"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="13">
         <v>0</v>
       </c>
@@ -3547,92 +3549,90 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>216</v>
+      <c r="A55" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="B55" s="13">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="14">
-        <f>SUM(B55:B63)</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="D55" s="15"/>
       <c r="F55" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G55" s="14">
-        <f>SUM(F55:F63)</f>
-        <v>1</v>
-      </c>
-      <c r="H55" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="15"/>
       <c r="I55" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="J55" s="27">
-        <f>SUM(I55:I63)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14">
+        <f>SUM(B56:B64)</f>
+        <v>1</v>
+      </c>
       <c r="E56" s="22"/>
       <c r="F56" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G56" s="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="G56" s="14">
+        <f>SUM(F56:F64)</f>
+        <v>1</v>
+      </c>
       <c r="H56" s="22"/>
       <c r="I56" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
+      </c>
+      <c r="J56" s="27">
+        <f>SUM(I56:I64)</f>
+        <v>1</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="O56" s="3">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="13">
         <v>2.5000000000000001E-2</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="13">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>229</v>
@@ -3680,36 +3680,36 @@
       <c r="D58" s="14"/>
       <c r="E58" s="22"/>
       <c r="F58" s="13">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="22"/>
       <c r="I58" s="13">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M58" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N58" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O58" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>229</v>
@@ -3717,33 +3717,33 @@
       <c r="D59" s="14"/>
       <c r="E59" s="22"/>
       <c r="F59" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="22"/>
       <c r="I59" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="M59" s="3">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="N59" s="3">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O59" s="3">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="13">
         <v>0.15</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="13">
         <v>0.15</v>
@@ -3815,9 +3815,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="13">
         <v>0.15</v>
@@ -3854,84 +3854,84 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.1</v>
+        <v>223</v>
+      </c>
+      <c r="B63" s="13">
+        <v>0.15</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="3">
-        <v>0.1</v>
+      <c r="F63" s="13">
+        <v>0.15</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="3">
-        <v>0.1</v>
+      <c r="I63" s="13">
+        <v>0.15</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M63" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="O63" s="3">
         <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="13">
-        <v>90</v>
-      </c>
       <c r="C64" s="12" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="22"/>
-      <c r="F64" s="13">
-        <v>90</v>
+      <c r="F64" s="3">
+        <v>0.1</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="22"/>
-      <c r="I64" s="13">
-        <v>90</v>
+      <c r="I64" s="3">
+        <v>0.1</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0.1</v>
       </c>
       <c r="M64" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>0.1</v>
       </c>
       <c r="N64" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>0.1</v>
       </c>
       <c r="O64" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>24</v>
@@ -3939,39 +3939,39 @@
       <c r="D65" s="14"/>
       <c r="E65" s="22"/>
       <c r="F65" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="22"/>
       <c r="I65" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M65" s="3">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N65" s="3">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O65" s="3">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="13">
         <v>75</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="22"/>
@@ -4002,47 +4002,47 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="13">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="22"/>
       <c r="F67" s="13">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="22"/>
       <c r="I67" s="13">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" ref="L67:L106" si="4">F67</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:M106" si="5">F67</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" ref="N67:N106" si="6">F67</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" ref="O67:O106" si="7">F67</f>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B68" s="13">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>24</v>
@@ -4050,110 +4050,110 @@
       <c r="D68" s="14"/>
       <c r="E68" s="22"/>
       <c r="F68" s="13">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="22"/>
       <c r="I68" s="13">
+        <v>38</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" ref="L68:L107" si="4">F68</f>
+        <v>38</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" ref="M68:M107" si="5">F68</f>
+        <v>38</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" ref="N68:N107" si="6">F68</f>
+        <v>38</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" ref="O68:O107" si="7">F68</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="13">
         <v>2</v>
       </c>
-      <c r="L68" s="3">
+      <c r="C69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="13">
+        <v>2</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="13">
+        <v>2</v>
+      </c>
+      <c r="L69" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M69" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N69" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O69" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B70" s="13">
         <v>30</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="13">
+      <c r="D70" s="14"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="13">
         <v>30</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="13">
+      <c r="G70" s="14"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="13">
         <v>30</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L70" s="3">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M70" s="3">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N70" s="3">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O70" s="3">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="13">
-        <v>38</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="13">
-        <v>38</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="13">
-        <v>38</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M70" s="3">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="N70" s="3">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="O70" s="3">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-    </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="13">
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>24</v>
@@ -4161,36 +4161,36 @@
       <c r="D71" s="15"/>
       <c r="E71" s="25"/>
       <c r="F71" s="13">
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="25"/>
       <c r="I71" s="13">
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="M71" s="3">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="N71" s="3">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="O71" s="3">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B72" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>24</v>
@@ -4198,147 +4198,147 @@
       <c r="D72" s="15"/>
       <c r="E72" s="25"/>
       <c r="F72" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="25"/>
       <c r="I72" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M72" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="N72" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="O72" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B73" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="E73" s="22"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73" s="3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B74" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
       <c r="F74" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="22"/>
       <c r="I74" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B75" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="22"/>
       <c r="F75" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="22"/>
       <c r="I75" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M75" s="3">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N75" s="3">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O75" s="3">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="13">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>39</v>
@@ -4346,36 +4346,36 @@
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="13">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="22"/>
       <c r="I76" s="13">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="M76" s="3">
         <f t="shared" si="5"/>
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="N76" s="3">
         <f t="shared" si="6"/>
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="O76" s="3">
         <f t="shared" si="7"/>
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B77" s="13">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>39</v>
@@ -4383,177 +4383,177 @@
       <c r="D77" s="15"/>
       <c r="E77" s="22"/>
       <c r="F77" s="13">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="22"/>
       <c r="I77" s="13">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="4"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="M77" s="3">
         <f t="shared" si="5"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="N77" s="3">
         <f t="shared" si="6"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="O77" s="3">
         <f t="shared" si="7"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="13">
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="13">
-        <v>8.25</v>
-      </c>
+        <v>16.5</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="13">
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="M78" s="3">
         <f t="shared" si="5"/>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="N78" s="3">
         <f t="shared" si="6"/>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="O78" s="3">
         <f t="shared" si="7"/>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B79" s="13">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F79" s="13">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="I79" s="13">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="M79" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="N79" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="O79" s="3">
         <f t="shared" si="7"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="13">
         <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="13">
-        <v>0.42</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="14">
-        <f>SUM(B81:B82)</f>
-        <v>1</v>
-      </c>
-      <c r="E80" s="22"/>
       <c r="F80" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="22"/>
+        <v>5</v>
+      </c>
       <c r="I80" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="J80" s="27"/>
+        <v>5</v>
+      </c>
       <c r="L80" s="3">
         <f t="shared" si="4"/>
-        <v>0.42</v>
+        <v>5</v>
       </c>
       <c r="M80" s="3">
         <f t="shared" si="5"/>
-        <v>0.42</v>
+        <v>5</v>
       </c>
       <c r="N80" s="3">
         <f t="shared" si="6"/>
-        <v>0.42</v>
+        <v>5</v>
       </c>
       <c r="O80" s="3">
         <f t="shared" si="7"/>
-        <v>0.42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B81" s="13">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="14">
+        <f>SUM(B82:B83)</f>
+        <v>1</v>
+      </c>
       <c r="E81" s="22"/>
       <c r="F81" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="15"/>
+        <v>0.42</v>
+      </c>
+      <c r="G81" s="14"/>
       <c r="H81" s="22"/>
       <c r="I81" s="13">
-        <v>0.5</v>
-      </c>
+        <v>0.42</v>
+      </c>
+      <c r="J81" s="27"/>
       <c r="L81" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="M81" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="N81" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="O81" s="3">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B82" s="13">
         <v>0.5</v>
@@ -4589,48 +4589,48 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
-        <v>32</v>
+      <c r="A83" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B83" s="13">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="22"/>
       <c r="F83" s="13">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="22"/>
       <c r="I83" s="13">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="M83" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="N83" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="O83" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B84" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>40</v>
@@ -4638,36 +4638,36 @@
       <c r="D84" s="15"/>
       <c r="E84" s="22"/>
       <c r="F84" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="22"/>
       <c r="I84" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="13">
-        <v>0.03</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>40</v>
@@ -4675,36 +4675,36 @@
       <c r="D85" s="15"/>
       <c r="E85" s="22"/>
       <c r="F85" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="22"/>
       <c r="I85" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L85" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M85" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N85" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O85" s="3">
         <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="13">
         <v>0.03</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="13">
-        <v>0.97</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>40</v>
@@ -4712,36 +4712,36 @@
       <c r="D86" s="15"/>
       <c r="E86" s="22"/>
       <c r="F86" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="22"/>
       <c r="I86" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L86" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M86" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N86" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O86" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="13">
-        <v>0.03</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>40</v>
@@ -4749,36 +4749,36 @@
       <c r="D87" s="15"/>
       <c r="E87" s="22"/>
       <c r="F87" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="22"/>
       <c r="I87" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L87" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M87" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N87" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O87" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B88" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>40</v>
@@ -4786,36 +4786,36 @@
       <c r="D88" s="15"/>
       <c r="E88" s="22"/>
       <c r="F88" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="22"/>
       <c r="I88" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L88" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M88" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N88" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O88" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="13">
-        <v>0.03</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>40</v>
@@ -4823,36 +4823,36 @@
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
       <c r="F89" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="22"/>
       <c r="I89" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L89" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M89" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N89" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O89" s="3">
         <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="13">
         <v>0.03</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" s="13">
-        <v>0.97</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>40</v>
@@ -4860,36 +4860,36 @@
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
       <c r="F90" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="22"/>
       <c r="I90" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M90" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N90" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O90" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="13">
-        <v>0.03</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>40</v>
@@ -4897,36 +4897,36 @@
       <c r="D91" s="15"/>
       <c r="E91" s="22"/>
       <c r="F91" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="22"/>
       <c r="I91" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M91" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N91" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O91" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B92" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>40</v>
@@ -4934,36 +4934,36 @@
       <c r="D92" s="15"/>
       <c r="E92" s="22"/>
       <c r="F92" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="22"/>
       <c r="I92" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M92" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N92" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O92" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="13">
-        <v>0.03</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>40</v>
@@ -4971,36 +4971,36 @@
       <c r="D93" s="15"/>
       <c r="E93" s="22"/>
       <c r="F93" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="22"/>
       <c r="I93" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M93" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N93" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O93" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B94" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>40</v>
@@ -5008,36 +5008,36 @@
       <c r="D94" s="15"/>
       <c r="E94" s="22"/>
       <c r="F94" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="22"/>
       <c r="I94" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M94" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N94" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O94" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="13">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" s="13">
-        <v>0.03</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>40</v>
@@ -5045,36 +5045,36 @@
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="22"/>
       <c r="I95" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M95" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N95" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O95" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B96" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>40</v>
@@ -5082,73 +5082,73 @@
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="22"/>
       <c r="I96" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M96" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N96" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O96" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" s="13">
-        <v>0.03</v>
-      </c>
       <c r="C97" s="12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="22"/>
       <c r="F97" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="22"/>
       <c r="I97" s="13">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="L97" s="3">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="M97" s="3">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="N97" s="3">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="O97" s="3">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B98" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>67</v>
@@ -5156,73 +5156,73 @@
       <c r="D98" s="15"/>
       <c r="E98" s="22"/>
       <c r="F98" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="22"/>
       <c r="I98" s="13">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L98" s="3">
         <f t="shared" si="4"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="M98" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="N98" s="3">
         <f t="shared" si="6"/>
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="O98" s="3">
         <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="13">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="13">
-        <v>0.23</v>
-      </c>
       <c r="C99" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="22"/>
       <c r="F99" s="13">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="22"/>
       <c r="I99" s="13">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="L99" s="3">
         <f t="shared" si="4"/>
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="M99" s="3">
         <f t="shared" si="5"/>
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="N99" s="3">
         <f t="shared" si="6"/>
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="O99" s="3">
         <f t="shared" si="7"/>
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>24</v>
@@ -5230,114 +5230,114 @@
       <c r="D100" s="15"/>
       <c r="E100" s="22"/>
       <c r="F100" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="22"/>
       <c r="I100" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="L100" s="3">
         <f t="shared" si="4"/>
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="M100" s="3">
         <f t="shared" si="5"/>
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="N100" s="3">
         <f t="shared" si="6"/>
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="O100" s="3">
         <f t="shared" si="7"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="13">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>226</v>
+      <c r="C101" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="22" t="s">
-        <v>227</v>
-      </c>
+      <c r="E101" s="22"/>
       <c r="F101" s="13">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G101" s="15"/>
-      <c r="H101" s="22" t="s">
-        <v>227</v>
-      </c>
+      <c r="H101" s="22"/>
       <c r="I101" s="13">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L101" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M101" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N101" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O101" s="3">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B102" s="13">
-        <v>0.99999850000000001</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>24</v>
+        <v>0.5</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="22"/>
+      <c r="E102" s="22" t="s">
+        <v>227</v>
+      </c>
       <c r="F102" s="13">
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G102" s="15"/>
-      <c r="H102" s="22"/>
+      <c r="H102" s="22" t="s">
+        <v>227</v>
+      </c>
       <c r="I102" s="13">
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L102" s="3">
         <f t="shared" si="4"/>
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M102" s="3">
         <f t="shared" si="5"/>
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
       <c r="N102" s="3">
         <f t="shared" si="6"/>
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O102" s="3">
         <f t="shared" si="7"/>
-        <v>0.99999850000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B103" s="13">
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>24</v>
@@ -5345,127 +5345,164 @@
       <c r="D103" s="15"/>
       <c r="E103" s="22"/>
       <c r="F103" s="13">
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="22"/>
       <c r="I103" s="13">
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="L103" s="3">
         <f t="shared" si="4"/>
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="M103" s="3">
         <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="N103" s="3">
         <f t="shared" si="6"/>
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="O103" s="3">
         <f t="shared" si="7"/>
-        <v>0.98</v>
+        <v>0.99999850000000001</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" s="13">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="15"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="13">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="G104" s="15"/>
+      <c r="H104" s="22"/>
       <c r="I104" s="13">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="L104" s="3">
         <f t="shared" si="4"/>
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="M104" s="3">
         <f t="shared" si="5"/>
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="N104" s="3">
         <f t="shared" si="6"/>
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="O104" s="3">
         <f t="shared" si="7"/>
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105" s="13">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="D105" s="15"/>
       <c r="F105" s="13">
-        <v>0.22</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="G105" s="15"/>
       <c r="I105" s="13">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="L105" s="3">
         <f t="shared" si="4"/>
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="M105" s="3">
         <f t="shared" si="5"/>
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="N105" s="3">
         <f t="shared" si="6"/>
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="O105" s="3">
         <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="13">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0.02</v>
-      </c>
       <c r="C106" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0.02</v>
+        <v>24</v>
+      </c>
+      <c r="F106" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0.22</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="4"/>
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="M106" s="3">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="N106" s="3">
         <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="3">
         <v>0.02</v>
       </c>
-      <c r="O106" s="3">
+      <c r="C107" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L107" s="3">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="M107" s="3">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N107" s="3">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="O107" s="3">
         <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
